--- a/content/data_trainE_L_wth_extrac_boosting.xlsx
+++ b/content/data_trainE_L_wth_extrac_boosting.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K410"/>
+  <dimension ref="A1:L410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>%CACO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Médio diário</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>medio_diario_corrigido</t>
         </is>
@@ -525,9 +530,12 @@
         <v>651.6237518027395</v>
       </c>
       <c r="J2" t="n">
+        <v>10.00577400986719</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.38</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>4.38</v>
       </c>
     </row>
@@ -562,9 +570,12 @@
         <v>649.5350684479441</v>
       </c>
       <c r="J3" t="n">
+        <v>10.00715791301564</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.6551</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>4.6551</v>
       </c>
     </row>
@@ -599,9 +610,12 @@
         <v>647.8882293518527</v>
       </c>
       <c r="J4" t="n">
+        <v>10.00172515324532</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.6337</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>4.6337</v>
       </c>
     </row>
@@ -636,9 +650,12 @@
         <v>647.6699573779651</v>
       </c>
       <c r="J5" t="n">
+        <v>10.00509584578187</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.5802</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>4.5802</v>
       </c>
     </row>
@@ -673,9 +690,12 @@
         <v>647.762742584407</v>
       </c>
       <c r="J6" t="n">
+        <v>10.00366272093153</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.6078</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4.6078</v>
       </c>
     </row>
@@ -710,9 +730,12 @@
         <v>649.8323853105247</v>
       </c>
       <c r="J7" t="n">
+        <v>10.00257935266484</v>
+      </c>
+      <c r="K7" t="n">
         <v>4.4714</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>4.4714</v>
       </c>
     </row>
@@ -747,9 +770,12 @@
         <v>647.0633550053046</v>
       </c>
       <c r="J8" t="n">
+        <v>9.999020884047683</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.5736</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4.5736</v>
       </c>
     </row>
@@ -784,9 +810,12 @@
         <v>648.106797337531</v>
       </c>
       <c r="J9" t="n">
+        <v>9.998352164520265</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.4931</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>4.4931</v>
       </c>
     </row>
@@ -821,9 +850,12 @@
         <v>667.6615697505055</v>
       </c>
       <c r="J10" t="n">
+        <v>10.00506888916223</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.8455</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>4.8455</v>
       </c>
     </row>
@@ -858,9 +890,12 @@
         <v>694.5975631317442</v>
       </c>
       <c r="J11" t="n">
+        <v>10.00579381341969</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.7547</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>4.7547</v>
       </c>
     </row>
@@ -895,9 +930,12 @@
         <v>727.6492169566263</v>
       </c>
       <c r="J12" t="n">
+        <v>14.5674588152987</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.6654</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>4.6654</v>
       </c>
     </row>
@@ -932,9 +970,12 @@
         <v>760.8877593746341</v>
       </c>
       <c r="J13" t="n">
+        <v>19.97666516871388</v>
+      </c>
+      <c r="K13" t="n">
         <v>5.0641</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>4.286</v>
       </c>
     </row>
@@ -969,9 +1010,12 @@
         <v>793.6673714392715</v>
       </c>
       <c r="J14" t="n">
+        <v>25.0104775808071</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.946099999999999</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>4.946099999999999</v>
       </c>
     </row>
@@ -1006,9 +1050,12 @@
         <v>800.6114759312318</v>
       </c>
       <c r="J15" t="n">
+        <v>24.98090597157252</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.8112</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>4.8112</v>
       </c>
     </row>
@@ -1043,9 +1090,12 @@
         <v>800.8699428472208</v>
       </c>
       <c r="J16" t="n">
+        <v>45.82516840315623</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.6801</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>4.1893</v>
       </c>
     </row>
@@ -1080,9 +1130,12 @@
         <v>804.3539831999999</v>
       </c>
       <c r="J17" t="n">
+        <v>49.97799580735638</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.717600000000001</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>4.717600000000001</v>
       </c>
     </row>
@@ -1117,9 +1170,12 @@
         <v>801.4787479491279</v>
       </c>
       <c r="J18" t="n">
+        <v>50.03251814550329</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.5995</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>4.5995</v>
       </c>
     </row>
@@ -1154,9 +1210,12 @@
         <v>799.3641895569767</v>
       </c>
       <c r="J19" t="n">
+        <v>49.97722004802475</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.599</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>4.599</v>
       </c>
     </row>
@@ -1191,9 +1250,12 @@
         <v>780.5047391126358</v>
       </c>
       <c r="J20" t="n">
+        <v>49.99969640718382</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.6685</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>4.6685</v>
       </c>
     </row>
@@ -1228,9 +1290,12 @@
         <v>782.0483832735517</v>
       </c>
       <c r="J21" t="n">
+        <v>49.99690663170038</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.409199999999998</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>4.409199999999998</v>
       </c>
     </row>
@@ -1265,9 +1330,12 @@
         <v>781.8421606764402</v>
       </c>
       <c r="J22" t="n">
+        <v>50.01009406575255</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.432699999999999</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>4.432699999999999</v>
       </c>
     </row>
@@ -1302,9 +1370,12 @@
         <v>780.7172447880515</v>
       </c>
       <c r="J23" t="n">
+        <v>49.98608684581378</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.824</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>4.824</v>
       </c>
     </row>
@@ -1339,9 +1410,12 @@
         <v>772.4433219897921</v>
       </c>
       <c r="J24" t="n">
+        <v>51.65427529002222</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.7137</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>4.7137</v>
       </c>
     </row>
@@ -1376,9 +1450,12 @@
         <v>765.6005469653642</v>
       </c>
       <c r="J25" t="n">
+        <v>57.73245614204037</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.8316</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>4.8316</v>
       </c>
     </row>
@@ -1413,9 +1490,12 @@
         <v>760.3409127607399</v>
       </c>
       <c r="J26" t="n">
+        <v>59.97309790213692</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.893699999999999</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>4.893699999999999</v>
       </c>
     </row>
@@ -1450,9 +1530,12 @@
         <v>759.6606112547706</v>
       </c>
       <c r="J27" t="n">
+        <v>60.02680581882497</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.9697</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>4.9697</v>
       </c>
     </row>
@@ -1487,9 +1570,12 @@
         <v>765.2030125829471</v>
       </c>
       <c r="J28" t="n">
+        <v>59.98408166881661</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.9074</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>4.9074</v>
       </c>
     </row>
@@ -1524,9 +1610,12 @@
         <v>759.0530700891471</v>
       </c>
       <c r="J29" t="n">
+        <v>60.0089793387574</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.9876</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>4.9876</v>
       </c>
     </row>
@@ -1561,9 +1650,12 @@
         <v>761.5791929855041</v>
       </c>
       <c r="J30" t="n">
+        <v>60.00689149719175</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.8184</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>4.8184</v>
       </c>
     </row>
@@ -1598,9 +1690,12 @@
         <v>761.2677780843002</v>
       </c>
       <c r="J31" t="n">
+        <v>60.03143875996199</v>
+      </c>
+      <c r="K31" t="n">
         <v>5.190100000000001</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>5.190100000000001</v>
       </c>
     </row>
@@ -1635,9 +1730,12 @@
         <v>775.2861313534584</v>
       </c>
       <c r="J32" t="n">
+        <v>59.97785607079346</v>
+      </c>
+      <c r="K32" t="n">
         <v>5.539</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>5.539</v>
       </c>
     </row>
@@ -1672,9 +1770,12 @@
         <v>770.4679739496164</v>
       </c>
       <c r="J33" t="n">
+        <v>59.96355664618602</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.138400000000001</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>5.138400000000001</v>
       </c>
     </row>
@@ -1709,9 +1810,12 @@
         <v>771.8613882092556</v>
       </c>
       <c r="J34" t="n">
+        <v>59.98486348360754</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.8361</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>4.8361</v>
       </c>
     </row>
@@ -1746,9 +1850,12 @@
         <v>784.0084996162946</v>
       </c>
       <c r="J35" t="n">
+        <v>60.01210448997297</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.6855</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>4.6855</v>
       </c>
     </row>
@@ -1783,9 +1890,12 @@
         <v>796.941589571699</v>
       </c>
       <c r="J36" t="n">
+        <v>51.25846176751053</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.853199999999998</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>4.853199999999998</v>
       </c>
     </row>
@@ -1820,9 +1930,12 @@
         <v>787.7680577993151</v>
       </c>
       <c r="J37" t="n">
+        <v>28.11741321662313</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.510999999999999</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>4.510999999999999</v>
       </c>
     </row>
@@ -1857,9 +1970,12 @@
         <v>797.8420336666666</v>
       </c>
       <c r="J38" t="n">
+        <v>10.00197991991732</v>
+      </c>
+      <c r="K38" t="n">
         <v>4.3106</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>4.7776</v>
       </c>
     </row>
@@ -1894,9 +2010,12 @@
         <v>817.1118352666667</v>
       </c>
       <c r="J39" t="n">
+        <v>9.998631334636951</v>
+      </c>
+      <c r="K39" t="n">
         <v>6.2531</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>4.7691</v>
       </c>
     </row>
@@ -1931,9 +2050,12 @@
         <v>804.3888622666666</v>
       </c>
       <c r="J40" t="n">
+        <v>9.995165742778054</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.7114</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>3.617900000000001</v>
       </c>
     </row>
@@ -1968,9 +2090,12 @@
         <v>799.5388953333334</v>
       </c>
       <c r="J41" t="n">
+        <v>10.00576713239791</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.6635</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>3.57</v>
       </c>
     </row>
@@ -2005,9 +2130,12 @@
         <v>794.8715735733334</v>
       </c>
       <c r="J42" t="n">
+        <v>10.00161568775304</v>
+      </c>
+      <c r="K42" t="n">
         <v>4.507</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>3.4135</v>
       </c>
     </row>
@@ -2042,9 +2170,12 @@
         <v>794.1489233333334</v>
       </c>
       <c r="J43" t="n">
+        <v>9.998124742992683</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.4537</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>3.360200000000001</v>
       </c>
     </row>
@@ -2079,9 +2210,12 @@
         <v>805.7648403333335</v>
       </c>
       <c r="J44" t="n">
+        <v>10.00291846522577</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.5695</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>3.476</v>
       </c>
     </row>
@@ -2116,9 +2250,12 @@
         <v>780.6585425912465</v>
       </c>
       <c r="J45" t="n">
+        <v>10.00437396621089</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.7961</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>4.7961</v>
       </c>
     </row>
@@ -2153,9 +2290,12 @@
         <v>751.8998681132914</v>
       </c>
       <c r="J46" t="n">
+        <v>10.00133171837042</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.8515</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>4.8515</v>
       </c>
     </row>
@@ -2190,9 +2330,12 @@
         <v>717.3054817334076</v>
       </c>
       <c r="J47" t="n">
+        <v>9.995741260297224</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.955900000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>4.955900000000001</v>
       </c>
     </row>
@@ -2227,9 +2370,12 @@
         <v>680.1699550542055</v>
       </c>
       <c r="J48" t="n">
+        <v>9.997501285481039</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.7693</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>4.7693</v>
       </c>
     </row>
@@ -2264,9 +2410,12 @@
         <v>645.8990187420496</v>
       </c>
       <c r="J49" t="n">
+        <v>10.52796149658758</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.480799999999999</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>4.480799999999999</v>
       </c>
     </row>
@@ -2301,9 +2450,12 @@
         <v>651.2679904086673</v>
       </c>
       <c r="J50" t="n">
+        <v>9.995885097799768</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.898</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>4.898</v>
       </c>
     </row>
@@ -2338,9 +2490,12 @@
         <v>656.4142075558024</v>
       </c>
       <c r="J51" t="n">
+        <v>9.993689844749937</v>
+      </c>
+      <c r="K51" t="n">
         <v>5.023</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>5.023</v>
       </c>
     </row>
@@ -2375,9 +2530,12 @@
         <v>655.575998389769</v>
       </c>
       <c r="J52" t="n">
+        <v>10.00646761948687</v>
+      </c>
+      <c r="K52" t="n">
         <v>4.7126</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>4.7126</v>
       </c>
     </row>
@@ -2412,9 +2570,12 @@
         <v>657.2064786364713</v>
       </c>
       <c r="J53" t="n">
+        <v>9.996858237963515</v>
+      </c>
+      <c r="K53" t="n">
         <v>4.9337</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>4.9337</v>
       </c>
     </row>
@@ -2449,9 +2610,12 @@
         <v>661.0933118537286</v>
       </c>
       <c r="J54" t="n">
+        <v>9.998588522194137</v>
+      </c>
+      <c r="K54" t="n">
         <v>4.9361</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>4.9361</v>
       </c>
     </row>
@@ -2486,9 +2650,12 @@
         <v>661.1486121024712</v>
       </c>
       <c r="J55" t="n">
+        <v>13.00766551207263</v>
+      </c>
+      <c r="K55" t="n">
         <v>4.5697</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>4.5697</v>
       </c>
     </row>
@@ -2523,9 +2690,12 @@
         <v>659.0456999774783</v>
       </c>
       <c r="J56" t="n">
+        <v>13.04917094564746</v>
+      </c>
+      <c r="K56" t="n">
         <v>5.0328</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>5.0328</v>
       </c>
     </row>
@@ -2560,9 +2730,12 @@
         <v>656.4265148431984</v>
       </c>
       <c r="J57" t="n">
+        <v>13.02506801091414</v>
+      </c>
+      <c r="K57" t="n">
         <v>5.1831</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>5.1831</v>
       </c>
     </row>
@@ -2597,9 +2770,12 @@
         <v>656.7971266602557</v>
       </c>
       <c r="J58" t="n">
+        <v>13.01771833789202</v>
+      </c>
+      <c r="K58" t="n">
         <v>4.7962</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>4.7962</v>
       </c>
     </row>
@@ -2634,9 +2810,12 @@
         <v>665.8057150396548</v>
       </c>
       <c r="J59" t="n">
+        <v>12.99177793853093</v>
+      </c>
+      <c r="K59" t="n">
         <v>4.7722</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>4.7722</v>
       </c>
     </row>
@@ -2671,9 +2850,12 @@
         <v>683.0805630542062</v>
       </c>
       <c r="J60" t="n">
+        <v>15.95712217496522</v>
+      </c>
+      <c r="K60" t="n">
         <v>4.8381</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>4.8381</v>
       </c>
     </row>
@@ -2708,9 +2890,12 @@
         <v>698.364604568373</v>
       </c>
       <c r="J61" t="n">
+        <v>17.61257646727681</v>
+      </c>
+      <c r="K61" t="n">
         <v>4.6744</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>4.6744</v>
       </c>
     </row>
@@ -2745,9 +2930,12 @@
         <v>702.5973572207782</v>
       </c>
       <c r="J62" t="n">
+        <v>21.98983506159862</v>
+      </c>
+      <c r="K62" t="n">
         <v>4.625599999999999</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>4.625599999999999</v>
       </c>
     </row>
@@ -2782,9 +2970,12 @@
         <v>722.4053657479573</v>
       </c>
       <c r="J63" t="n">
+        <v>22.00980329587891</v>
+      </c>
+      <c r="K63" t="n">
         <v>4.749400000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>4.749400000000001</v>
       </c>
     </row>
@@ -2819,9 +3010,12 @@
         <v>725.0280078663651</v>
       </c>
       <c r="J64" t="n">
+        <v>21.99915013895554</v>
+      </c>
+      <c r="K64" t="n">
         <v>4.8553</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>4.8553</v>
       </c>
     </row>
@@ -2856,9 +3050,12 @@
         <v>724.2264075549269</v>
       </c>
       <c r="J65" t="n">
+        <v>22.02349960401067</v>
+      </c>
+      <c r="K65" t="n">
         <v>4.9641</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>4.9641</v>
       </c>
     </row>
@@ -2893,9 +3090,12 @@
         <v>726.137923746603</v>
       </c>
       <c r="J66" t="n">
+        <v>21.96552401189006</v>
+      </c>
+      <c r="K66" t="n">
         <v>4.7343</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>4.7343</v>
       </c>
     </row>
@@ -2930,9 +3130,12 @@
         <v>748.5987410684685</v>
       </c>
       <c r="J67" t="n">
+        <v>23.64417548276523</v>
+      </c>
+      <c r="K67" t="n">
         <v>5.0667</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>5.0667</v>
       </c>
     </row>
@@ -2967,9 +3170,12 @@
         <v>754.7625506208333</v>
       </c>
       <c r="J68" t="n">
+        <v>25.04098803584481</v>
+      </c>
+      <c r="K68" t="n">
         <v>5.2999</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>5.2999</v>
       </c>
     </row>
@@ -3004,9 +3210,12 @@
         <v>707.9780264555624</v>
       </c>
       <c r="J69" t="n">
+        <v>22.03458217213351</v>
+      </c>
+      <c r="K69" t="n">
         <v>5.2287</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>5.2287</v>
       </c>
     </row>
@@ -3041,9 +3250,12 @@
         <v>699.7088317295999</v>
       </c>
       <c r="J70" t="n">
+        <v>19.00790642748346</v>
+      </c>
+      <c r="K70" t="n">
         <v>5.3081</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>5.3081</v>
       </c>
     </row>
@@ -3078,9 +3290,12 @@
         <v>696.6236624407499</v>
       </c>
       <c r="J71" t="n">
+        <v>19.02031285238887</v>
+      </c>
+      <c r="K71" t="n">
         <v>5.1759</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>5.1759</v>
       </c>
     </row>
@@ -3115,9 +3330,12 @@
         <v>699.4716858291249</v>
       </c>
       <c r="J72" t="n">
+        <v>19.01435078710116</v>
+      </c>
+      <c r="K72" t="n">
         <v>4.927243472416666</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>4.927243472416666</v>
       </c>
     </row>
@@ -3152,9 +3370,12 @@
         <v>701.3171124543373</v>
       </c>
       <c r="J73" t="n">
+        <v>18.96431694566124</v>
+      </c>
+      <c r="K73" t="n">
         <v>4.8575</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>4.8575</v>
       </c>
     </row>
@@ -3189,9 +3410,12 @@
         <v>705.3693493447332</v>
       </c>
       <c r="J74" t="n">
+        <v>18.99713960132829</v>
+      </c>
+      <c r="K74" t="n">
         <v>5.1738</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>5.1738</v>
       </c>
     </row>
@@ -3226,9 +3450,12 @@
         <v>706.3840798245</v>
       </c>
       <c r="J75" t="n">
+        <v>18.9698499481036</v>
+      </c>
+      <c r="K75" t="n">
         <v>5.4894</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>5.4894</v>
       </c>
     </row>
@@ -3263,9 +3490,12 @@
         <v>703.4842716825</v>
       </c>
       <c r="J76" t="n">
+        <v>19.04804490930787</v>
+      </c>
+      <c r="K76" t="n">
         <v>5.1404</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>5.1404</v>
       </c>
     </row>
@@ -3300,9 +3530,12 @@
         <v>700.9857692144998</v>
       </c>
       <c r="J77" t="n">
+        <v>18.97328103379833</v>
+      </c>
+      <c r="K77" t="n">
         <v>4.7353</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>4.7353</v>
       </c>
     </row>
@@ -3337,9 +3570,12 @@
         <v>701.0717017278333</v>
       </c>
       <c r="J78" t="n">
+        <v>18.97095542042469</v>
+      </c>
+      <c r="K78" t="n">
         <v>4.7093</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>4.7093</v>
       </c>
     </row>
@@ -3374,9 +3610,12 @@
         <v>698.447009414</v>
       </c>
       <c r="J79" t="n">
+        <v>19.0422463275471</v>
+      </c>
+      <c r="K79" t="n">
         <v>4.679</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>4.679</v>
       </c>
     </row>
@@ -3411,9 +3650,12 @@
         <v>700.4827335018332</v>
       </c>
       <c r="J80" t="n">
+        <v>18.98690626321511</v>
+      </c>
+      <c r="K80" t="n">
         <v>5.151</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>5.151</v>
       </c>
     </row>
@@ -3448,9 +3690,12 @@
         <v>698.7661332318331</v>
       </c>
       <c r="J81" t="n">
+        <v>19.03354980655222</v>
+      </c>
+      <c r="K81" t="n">
         <v>5.0243</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>5.0243</v>
       </c>
     </row>
@@ -3485,9 +3730,12 @@
         <v>709.765291281517</v>
       </c>
       <c r="J82" t="n">
+        <v>19.02037217912568</v>
+      </c>
+      <c r="K82" t="n">
         <v>4.8589</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>4.8589</v>
       </c>
     </row>
@@ -3522,9 +3770,12 @@
         <v>695.9435157419394</v>
       </c>
       <c r="J83" t="n">
+        <v>16.66801936883245</v>
+      </c>
+      <c r="K83" t="n">
         <v>4.7466</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>4.7466</v>
       </c>
     </row>
@@ -3559,9 +3810,12 @@
         <v>677.6779966506977</v>
       </c>
       <c r="J84" t="n">
+        <v>14.97761481140683</v>
+      </c>
+      <c r="K84" t="n">
         <v>4.791</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>4.791</v>
       </c>
     </row>
@@ -3596,9 +3850,12 @@
         <v>654.391573377138</v>
       </c>
       <c r="J85" t="n">
+        <v>14.97574296292486</v>
+      </c>
+      <c r="K85" t="n">
         <v>4.9478</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>4.9478</v>
       </c>
     </row>
@@ -3633,9 +3890,12 @@
         <v>651.5155439419843</v>
       </c>
       <c r="J86" t="n">
+        <v>15.04185140496458</v>
+      </c>
+      <c r="K86" t="n">
         <v>4.449599999999999</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>4.449599999999999</v>
       </c>
     </row>
@@ -3670,9 +3930,12 @@
         <v>660.319903698338</v>
       </c>
       <c r="J87" t="n">
+        <v>14.99273298374289</v>
+      </c>
+      <c r="K87" t="n">
         <v>4.5754</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>4.5754</v>
       </c>
     </row>
@@ -3707,9 +3970,12 @@
         <v>634.4670626081797</v>
       </c>
       <c r="J88" t="n">
+        <v>14.97319649809276</v>
+      </c>
+      <c r="K88" t="n">
         <v>4.5524</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>4.5524</v>
       </c>
     </row>
@@ -3744,9 +4010,12 @@
         <v>616.0078376843968</v>
       </c>
       <c r="J89" t="n">
+        <v>15.01604270940967</v>
+      </c>
+      <c r="K89" t="n">
         <v>4.5533</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>4.5533</v>
       </c>
     </row>
@@ -3781,9 +4050,12 @@
         <v>603.9789451548837</v>
       </c>
       <c r="J90" t="n">
+        <v>14.98396603490744</v>
+      </c>
+      <c r="K90" t="n">
         <v>4.8483</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>4.8483</v>
       </c>
     </row>
@@ -3818,9 +4090,12 @@
         <v>604.8329710632038</v>
       </c>
       <c r="J91" t="n">
+        <v>14.96280863143338</v>
+      </c>
+      <c r="K91" t="n">
         <v>4.9898</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>4.9898</v>
       </c>
     </row>
@@ -3855,9 +4130,12 @@
         <v>602.5303868697907</v>
       </c>
       <c r="J92" t="n">
+        <v>15.01998936023079</v>
+      </c>
+      <c r="K92" t="n">
         <v>4.9002</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>4.9002</v>
       </c>
     </row>
@@ -3892,9 +4170,12 @@
         <v>606.1439863896583</v>
       </c>
       <c r="J93" t="n">
+        <v>15.01293455735134</v>
+      </c>
+      <c r="K93" t="n">
         <v>4.845</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>4.845</v>
       </c>
     </row>
@@ -3929,9 +4210,12 @@
         <v>609.5676554827443</v>
       </c>
       <c r="J94" t="n">
+        <v>16.9792473516387</v>
+      </c>
+      <c r="K94" t="n">
         <v>4.7874</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>4.7874</v>
       </c>
     </row>
@@ -3966,9 +4250,12 @@
         <v>609.5661749623805</v>
       </c>
       <c r="J95" t="n">
+        <v>16.97928859100286</v>
+      </c>
+      <c r="K95" t="n">
         <v>4.8881</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>4.8881</v>
       </c>
     </row>
@@ -4003,9 +4290,12 @@
         <v>612.4283183413519</v>
       </c>
       <c r="J96" t="n">
+        <v>16.98157921267662</v>
+      </c>
+      <c r="K96" t="n">
         <v>4.6897</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>4.6897</v>
       </c>
     </row>
@@ -4040,9 +4330,12 @@
         <v>603.8441604507085</v>
       </c>
       <c r="J97" t="n">
+        <v>16.97457832886785</v>
+      </c>
+      <c r="K97" t="n">
         <v>4.628200000000001</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>4.628200000000001</v>
       </c>
     </row>
@@ -4077,9 +4370,12 @@
         <v>603.2425664496016</v>
       </c>
       <c r="J98" t="n">
+        <v>16.99150651839213</v>
+      </c>
+      <c r="K98" t="n">
         <v>4.7632</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>4.7632</v>
       </c>
     </row>
@@ -4114,9 +4410,12 @@
         <v>601.4063976046534</v>
       </c>
       <c r="J99" t="n">
+        <v>17.04338370995854</v>
+      </c>
+      <c r="K99" t="n">
         <v>5.1616</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>5.1616</v>
       </c>
     </row>
@@ -4151,9 +4450,12 @@
         <v>601.1513766600621</v>
       </c>
       <c r="J100" t="n">
+        <v>16.96744014239841</v>
+      </c>
+      <c r="K100" t="n">
         <v>5.0035</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>5.0035</v>
       </c>
     </row>
@@ -4188,9 +4490,12 @@
         <v>602.0781078163665</v>
       </c>
       <c r="J101" t="n">
+        <v>18.18700905720316</v>
+      </c>
+      <c r="K101" t="n">
         <v>5.1428</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>5.1428</v>
       </c>
     </row>
@@ -4225,9 +4530,12 @@
         <v>601.2564110719627</v>
       </c>
       <c r="J102" t="n">
+        <v>19.29293357441078</v>
+      </c>
+      <c r="K102" t="n">
         <v>4.8721</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>4.8721</v>
       </c>
     </row>
@@ -4262,9 +4570,12 @@
         <v>601.0818639988768</v>
       </c>
       <c r="J103" t="n">
+        <v>19.96400277354305</v>
+      </c>
+      <c r="K103" t="n">
         <v>4.893400000000001</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>4.893400000000001</v>
       </c>
     </row>
@@ -4299,9 +4610,12 @@
         <v>604.8218918150208</v>
       </c>
       <c r="J104" t="n">
+        <v>20.00588960774699</v>
+      </c>
+      <c r="K104" t="n">
         <v>4.8131</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>4.8131</v>
       </c>
     </row>
@@ -4336,9 +4650,12 @@
         <v>606.0169283144178</v>
       </c>
       <c r="J105" t="n">
+        <v>19.9664389469368</v>
+      </c>
+      <c r="K105" t="n">
         <v>5.0356</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>5.0356</v>
       </c>
     </row>
@@ -4373,9 +4690,12 @@
         <v>608.084755418131</v>
       </c>
       <c r="J106" t="n">
+        <v>19.98076730544811</v>
+      </c>
+      <c r="K106" t="n">
         <v>5.0324</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>5.0324</v>
       </c>
     </row>
@@ -4410,9 +4730,12 @@
         <v>609.4472389524449</v>
       </c>
       <c r="J107" t="n">
+        <v>20.01813975065357</v>
+      </c>
+      <c r="K107" t="n">
         <v>4.9014</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>4.9014</v>
       </c>
     </row>
@@ -4447,9 +4770,12 @@
         <v>603.0909495218746</v>
       </c>
       <c r="J108" t="n">
+        <v>20.80946499022997</v>
+      </c>
+      <c r="K108" t="n">
         <v>4.942</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>4.942</v>
       </c>
     </row>
@@ -4484,9 +4810,12 @@
         <v>603.9733366963783</v>
       </c>
       <c r="J109" t="n">
+        <v>22.02083964955891</v>
+      </c>
+      <c r="K109" t="n">
         <v>4.864</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>4.864</v>
       </c>
     </row>
@@ -4521,9 +4850,12 @@
         <v>595.1190070106975</v>
       </c>
       <c r="J110" t="n">
+        <v>24.44889144624221</v>
+      </c>
+      <c r="K110" t="n">
         <v>4.7678</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>4.7678</v>
       </c>
     </row>
@@ -4558,9 +4890,12 @@
         <v>601.016354051996</v>
       </c>
       <c r="J111" t="n">
+        <v>49.99863946697242</v>
+      </c>
+      <c r="K111" t="n">
         <v>4.6825</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>4.6825</v>
       </c>
     </row>
@@ -4595,9 +4930,12 @@
         <v>598.6359036596318</v>
       </c>
       <c r="J112" t="n">
+        <v>50.03041049978312</v>
+      </c>
+      <c r="K112" t="n">
         <v>4.6661</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>4.6661</v>
       </c>
     </row>
@@ -4632,9 +4970,12 @@
         <v>600.7717212968216</v>
       </c>
       <c r="J113" t="n">
+        <v>50.01899878898142</v>
+      </c>
+      <c r="K113" t="n">
         <v>4.752</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>4.752</v>
       </c>
     </row>
@@ -4669,9 +5010,12 @@
         <v>604.5787632461047</v>
       </c>
       <c r="J114" t="n">
+        <v>49.95213500032674</v>
+      </c>
+      <c r="K114" t="n">
         <v>4.4497</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>4.4497</v>
       </c>
     </row>
@@ -4706,9 +5050,12 @@
         <v>600.0926922883023</v>
       </c>
       <c r="J115" t="n">
+        <v>49.99227683577109</v>
+      </c>
+      <c r="K115" t="n">
         <v>4.2581</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>4.2581</v>
       </c>
     </row>
@@ -4743,9 +5090,12 @@
         <v>601.7587531386001</v>
       </c>
       <c r="J116" t="n">
+        <v>50.02004514767269</v>
+      </c>
+      <c r="K116" t="n">
         <v>4.2695</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>4.2695</v>
       </c>
     </row>
@@ -4780,9 +5130,12 @@
         <v>605.0383152907666</v>
       </c>
       <c r="J117" t="n">
+        <v>49.99683364757254</v>
+      </c>
+      <c r="K117" t="n">
         <v>4.2592</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>4.2592</v>
       </c>
     </row>
@@ -4817,9 +5170,12 @@
         <v>604.0973685392867</v>
       </c>
       <c r="J118" t="n">
+        <v>49.99194098961877</v>
+      </c>
+      <c r="K118" t="n">
         <v>4.1972</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>4.1972</v>
       </c>
     </row>
@@ -4854,9 +5210,12 @@
         <v>604.1936842834334</v>
       </c>
       <c r="J119" t="n">
+        <v>49.98397167262157</v>
+      </c>
+      <c r="K119" t="n">
         <v>4.3383</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>4.3383</v>
       </c>
     </row>
@@ -4891,9 +5250,12 @@
         <v>601.7932711348</v>
       </c>
       <c r="J120" t="n">
+        <v>50.01717606984955</v>
+      </c>
+      <c r="K120" t="n">
         <v>4.1253</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>4.1253</v>
       </c>
     </row>
@@ -4928,9 +5290,12 @@
         <v>600.6911980888</v>
       </c>
       <c r="J121" t="n">
+        <v>50.02570388181004</v>
+      </c>
+      <c r="K121" t="n">
         <v>3.9794</v>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>3.9794</v>
       </c>
     </row>
@@ -4965,9 +5330,12 @@
         <v>603.5228142329333</v>
       </c>
       <c r="J122" t="n">
+        <v>50.03953336608105</v>
+      </c>
+      <c r="K122" t="n">
         <v>4.3747</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>4.3747</v>
       </c>
     </row>
@@ -5002,9 +5370,12 @@
         <v>602.5963299978334</v>
       </c>
       <c r="J123" t="n">
+        <v>49.95051994443481</v>
+      </c>
+      <c r="K123" t="n">
         <v>4.3853</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>4.3853</v>
       </c>
     </row>
@@ -5039,9 +5410,12 @@
         <v>602.9822375717465</v>
       </c>
       <c r="J124" t="n">
+        <v>41.95811820574507</v>
+      </c>
+      <c r="K124" t="n">
         <v>4.4235</v>
       </c>
-      <c r="K124" t="n">
+      <c r="L124" t="n">
         <v>4.4235</v>
       </c>
     </row>
@@ -5076,9 +5450,12 @@
         <v>608.8322683357894</v>
       </c>
       <c r="J125" t="n">
+        <v>33.99951197820435</v>
+      </c>
+      <c r="K125" t="n">
         <v>4.3035</v>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>4.3035</v>
       </c>
     </row>
@@ -5113,9 +5490,12 @@
         <v>609.5350776445736</v>
       </c>
       <c r="J126" t="n">
+        <v>33.96030968388401</v>
+      </c>
+      <c r="K126" t="n">
         <v>4.2791</v>
       </c>
-      <c r="K126" t="n">
+      <c r="L126" t="n">
         <v>4.2791</v>
       </c>
     </row>
@@ -5150,9 +5530,12 @@
         <v>608.3732218116279</v>
       </c>
       <c r="J127" t="n">
+        <v>34.02516622667753</v>
+      </c>
+      <c r="K127" t="n">
         <v>4.2066</v>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>4.2066</v>
       </c>
     </row>
@@ -5187,9 +5570,12 @@
         <v>609.709891247403</v>
       </c>
       <c r="J128" t="n">
+        <v>33.95057271852676</v>
+      </c>
+      <c r="K128" t="n">
         <v>4.1714</v>
       </c>
-      <c r="K128" t="n">
+      <c r="L128" t="n">
         <v>4.1714</v>
       </c>
     </row>
@@ -5224,9 +5610,12 @@
         <v>615.3014342020281</v>
       </c>
       <c r="J129" t="n">
+        <v>33.96709131208964</v>
+      </c>
+      <c r="K129" t="n">
         <v>4.2021</v>
       </c>
-      <c r="K129" t="n">
+      <c r="L129" t="n">
         <v>4.2021</v>
       </c>
     </row>
@@ -5261,9 +5650,12 @@
         <v>618.31734042562</v>
       </c>
       <c r="J130" t="n">
+        <v>33.96314259202985</v>
+      </c>
+      <c r="K130" t="n">
         <v>4.2856</v>
       </c>
-      <c r="K130" t="n">
+      <c r="L130" t="n">
         <v>4.2856</v>
       </c>
     </row>
@@ -5298,9 +5690,12 @@
         <v>612.5855890012404</v>
       </c>
       <c r="J131" t="n">
+        <v>33.95443897711065</v>
+      </c>
+      <c r="K131" t="n">
         <v>4.3594</v>
       </c>
-      <c r="K131" t="n">
+      <c r="L131" t="n">
         <v>4.3594</v>
       </c>
     </row>
@@ -5335,9 +5730,12 @@
         <v>605.0203731917054</v>
       </c>
       <c r="J132" t="n">
+        <v>34.0484402059511</v>
+      </c>
+      <c r="K132" t="n">
         <v>4.3066</v>
       </c>
-      <c r="K132" t="n">
+      <c r="L132" t="n">
         <v>4.3066</v>
       </c>
     </row>
@@ -5372,9 +5770,12 @@
         <v>601.1957670746899</v>
       </c>
       <c r="J133" t="n">
+        <v>34.01554222430076</v>
+      </c>
+      <c r="K133" t="n">
         <v>4.2828</v>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>4.2828</v>
       </c>
     </row>
@@ -5409,9 +5810,12 @@
         <v>604.6833273822481</v>
       </c>
       <c r="J134" t="n">
+        <v>33.98473063407187</v>
+      </c>
+      <c r="K134" t="n">
         <v>4.3909</v>
       </c>
-      <c r="K134" t="n">
+      <c r="L134" t="n">
         <v>4.3909</v>
       </c>
     </row>
@@ -5446,9 +5850,12 @@
         <v>606.2051728445155</v>
       </c>
       <c r="J135" t="n">
+        <v>33.98189412231172</v>
+      </c>
+      <c r="K135" t="n">
         <v>4.4134</v>
       </c>
-      <c r="K135" t="n">
+      <c r="L135" t="n">
         <v>4.4134</v>
       </c>
     </row>
@@ -5483,9 +5890,12 @@
         <v>606.0886912947482</v>
       </c>
       <c r="J136" t="n">
+        <v>33.98842495475959</v>
+      </c>
+      <c r="K136" t="n">
         <v>4.451099999999999</v>
       </c>
-      <c r="K136" t="n">
+      <c r="L136" t="n">
         <v>4.451099999999999</v>
       </c>
     </row>
@@ -5520,9 +5930,12 @@
         <v>599.9003484115891</v>
       </c>
       <c r="J137" t="n">
+        <v>34.00564786137388</v>
+      </c>
+      <c r="K137" t="n">
         <v>4.3737</v>
       </c>
-      <c r="K137" t="n">
+      <c r="L137" t="n">
         <v>4.3737</v>
       </c>
     </row>
@@ -5557,9 +5970,12 @@
         <v>600.4890541839146</v>
       </c>
       <c r="J138" t="n">
+        <v>33.97230949983644</v>
+      </c>
+      <c r="K138" t="n">
         <v>4.3653</v>
       </c>
-      <c r="K138" t="n">
+      <c r="L138" t="n">
         <v>4.3653</v>
       </c>
     </row>
@@ -5594,9 +6010,12 @@
         <v>600.0441057744379</v>
       </c>
       <c r="J139" t="n">
+        <v>33.99750085649295</v>
+      </c>
+      <c r="K139" t="n">
         <v>4.3937</v>
       </c>
-      <c r="K139" t="n">
+      <c r="L139" t="n">
         <v>4.3937</v>
       </c>
     </row>
@@ -5631,9 +6050,12 @@
         <v>607.2540746476938</v>
       </c>
       <c r="J140" t="n">
+        <v>34.00553551160667</v>
+      </c>
+      <c r="K140" t="n">
         <v>4.0399</v>
       </c>
-      <c r="K140" t="n">
+      <c r="L140" t="n">
         <v>4.0399</v>
       </c>
     </row>
@@ -5668,9 +6090,12 @@
         <v>612.6565736561047</v>
       </c>
       <c r="J141" t="n">
+        <v>33.95050489032281</v>
+      </c>
+      <c r="K141" t="n">
         <v>3.9292</v>
       </c>
-      <c r="K141" t="n">
+      <c r="L141" t="n">
         <v>3.9292</v>
       </c>
     </row>
@@ -5705,9 +6130,12 @@
         <v>593.396527714651</v>
       </c>
       <c r="J142" t="n">
+        <v>34.0413181684704</v>
+      </c>
+      <c r="K142" t="n">
         <v>3.8149</v>
       </c>
-      <c r="K142" t="n">
+      <c r="L142" t="n">
         <v>3.8149</v>
       </c>
     </row>
@@ -5742,9 +6170,12 @@
         <v>602.5810840049304</v>
       </c>
       <c r="J143" t="n">
+        <v>34.02031783631672</v>
+      </c>
+      <c r="K143" t="n">
         <v>4.3937</v>
       </c>
-      <c r="K143" t="n">
+      <c r="L143" t="n">
         <v>4.3937</v>
       </c>
     </row>
@@ -5779,9 +6210,12 @@
         <v>601.7234176816113</v>
       </c>
       <c r="J144" t="n">
+        <v>33.9857140325236</v>
+      </c>
+      <c r="K144" t="n">
         <v>4.7334</v>
       </c>
-      <c r="K144" t="n">
+      <c r="L144" t="n">
         <v>4.7334</v>
       </c>
     </row>
@@ -5816,9 +6250,12 @@
         <v>604.0176149892999</v>
       </c>
       <c r="J145" t="n">
+        <v>34.02218658865444</v>
+      </c>
+      <c r="K145" t="n">
         <v>4.710900000000001</v>
       </c>
-      <c r="K145" t="n">
+      <c r="L145" t="n">
         <v>4.710900000000001</v>
       </c>
     </row>
@@ -5853,9 +6290,12 @@
         <v>604.3543599319636</v>
       </c>
       <c r="J146" t="n">
+        <v>34.00322949984751</v>
+      </c>
+      <c r="K146" t="n">
         <v>4.522</v>
       </c>
-      <c r="K146" t="n">
+      <c r="L146" t="n">
         <v>4.522</v>
       </c>
     </row>
@@ -5890,9 +6330,12 @@
         <v>606.9401363063953</v>
       </c>
       <c r="J147" t="n">
+        <v>34.02312479393433</v>
+      </c>
+      <c r="K147" t="n">
         <v>4.3018</v>
       </c>
-      <c r="K147" t="n">
+      <c r="L147" t="n">
         <v>4.3018</v>
       </c>
     </row>
@@ -5927,9 +6370,12 @@
         <v>605.4706922435076</v>
       </c>
       <c r="J148" t="n">
+        <v>34.02311666592627</v>
+      </c>
+      <c r="K148" t="n">
         <v>4.0832</v>
       </c>
-      <c r="K148" t="n">
+      <c r="L148" t="n">
         <v>4.0832</v>
       </c>
     </row>
@@ -5964,9 +6410,12 @@
         <v>604.2701719211434</v>
       </c>
       <c r="J149" t="n">
+        <v>34.00796689114377</v>
+      </c>
+      <c r="K149" t="n">
         <v>4.4341</v>
       </c>
-      <c r="K149" t="n">
+      <c r="L149" t="n">
         <v>4.4341</v>
       </c>
     </row>
@@ -6001,9 +6450,12 @@
         <v>602.8370250603487</v>
       </c>
       <c r="J150" t="n">
+        <v>34.00587413811849</v>
+      </c>
+      <c r="K150" t="n">
         <v>4.6826</v>
       </c>
-      <c r="K150" t="n">
+      <c r="L150" t="n">
         <v>4.6826</v>
       </c>
     </row>
@@ -6038,9 +6490,12 @@
         <v>604.9556619507305</v>
       </c>
       <c r="J151" t="n">
+        <v>33.96943163360897</v>
+      </c>
+      <c r="K151" t="n">
         <v>4.7111</v>
       </c>
-      <c r="K151" t="n">
+      <c r="L151" t="n">
         <v>4.7111</v>
       </c>
     </row>
@@ -6075,9 +6530,12 @@
         <v>602.6702842136629</v>
       </c>
       <c r="J152" t="n">
+        <v>34.01528254665398</v>
+      </c>
+      <c r="K152" t="n">
         <v>4.3108</v>
       </c>
-      <c r="K152" t="n">
+      <c r="L152" t="n">
         <v>4.3108</v>
       </c>
     </row>
@@ -6112,9 +6570,12 @@
         <v>608.2936778737017</v>
       </c>
       <c r="J153" t="n">
+        <v>34.02961555076015</v>
+      </c>
+      <c r="K153" t="n">
         <v>4.2711</v>
       </c>
-      <c r="K153" t="n">
+      <c r="L153" t="n">
         <v>4.2711</v>
       </c>
     </row>
@@ -6149,9 +6610,12 @@
         <v>605.3012611451163</v>
       </c>
       <c r="J154" t="n">
+        <v>34.0326401452207</v>
+      </c>
+      <c r="K154" t="n">
         <v>4.3412</v>
       </c>
-      <c r="K154" t="n">
+      <c r="L154" t="n">
         <v>4.3412</v>
       </c>
     </row>
@@ -6186,9 +6650,12 @@
         <v>605.5271527358721</v>
       </c>
       <c r="J155" t="n">
+        <v>34.01994428643833</v>
+      </c>
+      <c r="K155" t="n">
         <v>4.534</v>
       </c>
-      <c r="K155" t="n">
+      <c r="L155" t="n">
         <v>4.534</v>
       </c>
     </row>
@@ -6223,9 +6690,12 @@
         <v>605.7922954315696</v>
       </c>
       <c r="J156" t="n">
+        <v>34.00505446396351</v>
+      </c>
+      <c r="K156" t="n">
         <v>4.6343</v>
       </c>
-      <c r="K156" t="n">
+      <c r="L156" t="n">
         <v>4.6343</v>
       </c>
     </row>
@@ -6260,9 +6730,12 @@
         <v>603.945359621657</v>
       </c>
       <c r="J157" t="n">
+        <v>34.02625696614938</v>
+      </c>
+      <c r="K157" t="n">
         <v>4.5925</v>
       </c>
-      <c r="K157" t="n">
+      <c r="L157" t="n">
         <v>4.5925</v>
       </c>
     </row>
@@ -6297,9 +6770,12 @@
         <v>612.1963673052472</v>
       </c>
       <c r="J158" t="n">
+        <v>33.97602650201436</v>
+      </c>
+      <c r="K158" t="n">
         <v>4.1382</v>
       </c>
-      <c r="K158" t="n">
+      <c r="L158" t="n">
         <v>4.1382</v>
       </c>
     </row>
@@ -6334,9 +6810,12 @@
         <v>606.7395229895071</v>
       </c>
       <c r="J159" t="n">
+        <v>33.95196656796043</v>
+      </c>
+      <c r="K159" t="n">
         <v>4.125599999999999</v>
       </c>
-      <c r="K159" t="n">
+      <c r="L159" t="n">
         <v>4.125599999999999</v>
       </c>
     </row>
@@ -6371,9 +6850,12 @@
         <v>603.6246252317891</v>
       </c>
       <c r="J160" t="n">
+        <v>33.96150379406422</v>
+      </c>
+      <c r="K160" t="n">
         <v>4.1255</v>
       </c>
-      <c r="K160" t="n">
+      <c r="L160" t="n">
         <v>4.1255</v>
       </c>
     </row>
@@ -6408,9 +6890,12 @@
         <v>600.6150685922853</v>
       </c>
       <c r="J161" t="n">
+        <v>33.96518180573339</v>
+      </c>
+      <c r="K161" t="n">
         <v>4.3848</v>
       </c>
-      <c r="K161" t="n">
+      <c r="L161" t="n">
         <v>4.3848</v>
       </c>
     </row>
@@ -6445,9 +6930,12 @@
         <v>601.8710759662513</v>
       </c>
       <c r="J162" t="n">
+        <v>33.97737624651479</v>
+      </c>
+      <c r="K162" t="n">
         <v>4.8064</v>
       </c>
-      <c r="K162" t="n">
+      <c r="L162" t="n">
         <v>4.8064</v>
       </c>
     </row>
@@ -6482,9 +6970,12 @@
         <v>601.6640227802804</v>
       </c>
       <c r="J163" t="n">
+        <v>33.98906902477043</v>
+      </c>
+      <c r="K163" t="n">
         <v>4.6639</v>
       </c>
-      <c r="K163" t="n">
+      <c r="L163" t="n">
         <v>4.6639</v>
       </c>
     </row>
@@ -6519,9 +7010,12 @@
         <v>600.5027195396185</v>
       </c>
       <c r="J164" t="n">
+        <v>33.97153640809465</v>
+      </c>
+      <c r="K164" t="n">
         <v>4.7652</v>
       </c>
-      <c r="K164" t="n">
+      <c r="L164" t="n">
         <v>4.7652</v>
       </c>
     </row>
@@ -6556,9 +7050,12 @@
         <v>597.3961111767939</v>
       </c>
       <c r="J165" t="n">
+        <v>33.98080372503865</v>
+      </c>
+      <c r="K165" t="n">
         <v>4.7649</v>
       </c>
-      <c r="K165" t="n">
+      <c r="L165" t="n">
         <v>4.7649</v>
       </c>
     </row>
@@ -6593,9 +7090,12 @@
         <v>597.9908065664108</v>
       </c>
       <c r="J166" t="n">
+        <v>34.03062350882479</v>
+      </c>
+      <c r="K166" t="n">
         <v>4.6029</v>
       </c>
-      <c r="K166" t="n">
+      <c r="L166" t="n">
         <v>4.6029</v>
       </c>
     </row>
@@ -6630,9 +7130,12 @@
         <v>598.8637976391319</v>
       </c>
       <c r="J167" t="n">
+        <v>33.98101551675806</v>
+      </c>
+      <c r="K167" t="n">
         <v>4.9426</v>
       </c>
-      <c r="K167" t="n">
+      <c r="L167" t="n">
         <v>4.9426</v>
       </c>
     </row>
@@ -6667,9 +7170,12 @@
         <v>605.5607244264945</v>
       </c>
       <c r="J168" t="n">
+        <v>34.01805825420654</v>
+      </c>
+      <c r="K168" t="n">
         <v>4.9984</v>
       </c>
-      <c r="K168" t="n">
+      <c r="L168" t="n">
         <v>4.9984</v>
       </c>
     </row>
@@ -6704,9 +7210,12 @@
         <v>602.1023353850682</v>
       </c>
       <c r="J169" t="n">
+        <v>33.96432599272583</v>
+      </c>
+      <c r="K169" t="n">
         <v>4.4365</v>
       </c>
-      <c r="K169" t="n">
+      <c r="L169" t="n">
         <v>4.4365</v>
       </c>
     </row>
@@ -6741,9 +7250,12 @@
         <v>602.1449103709053</v>
       </c>
       <c r="J170" t="n">
+        <v>34.04496101673025</v>
+      </c>
+      <c r="K170" t="n">
         <v>4.1782</v>
       </c>
-      <c r="K170" t="n">
+      <c r="L170" t="n">
         <v>4.1782</v>
       </c>
     </row>
@@ -6778,9 +7290,12 @@
         <v>603.2745254631296</v>
       </c>
       <c r="J171" t="n">
+        <v>33.98121275593776</v>
+      </c>
+      <c r="K171" t="n">
         <v>4.361400000000001</v>
       </c>
-      <c r="K171" t="n">
+      <c r="L171" t="n">
         <v>4.361400000000001</v>
       </c>
     </row>
@@ -6815,9 +7330,12 @@
         <v>597.7881630171365</v>
       </c>
       <c r="J172" t="n">
+        <v>33.95851784274636</v>
+      </c>
+      <c r="K172" t="n">
         <v>4.343900000000001</v>
       </c>
-      <c r="K172" t="n">
+      <c r="L172" t="n">
         <v>4.343900000000001</v>
       </c>
     </row>
@@ -6852,9 +7370,12 @@
         <v>600.0275736143606</v>
       </c>
       <c r="J173" t="n">
+        <v>33.99843756698944</v>
+      </c>
+      <c r="K173" t="n">
         <v>4.4961</v>
       </c>
-      <c r="K173" t="n">
+      <c r="L173" t="n">
         <v>4.4961</v>
       </c>
     </row>
@@ -6889,9 +7410,12 @@
         <v>602.6246695184303</v>
       </c>
       <c r="J174" t="n">
+        <v>34.01785727819933</v>
+      </c>
+      <c r="K174" t="n">
         <v>4.7265</v>
       </c>
-      <c r="K174" t="n">
+      <c r="L174" t="n">
         <v>4.7265</v>
       </c>
     </row>
@@ -6926,9 +7450,12 @@
         <v>603.153651698217</v>
       </c>
       <c r="J175" t="n">
+        <v>33.98802269086983</v>
+      </c>
+      <c r="K175" t="n">
         <v>4.7882</v>
       </c>
-      <c r="K175" t="n">
+      <c r="L175" t="n">
         <v>4.7882</v>
       </c>
     </row>
@@ -6963,9 +7490,12 @@
         <v>599.9527713195737</v>
       </c>
       <c r="J176" t="n">
+        <v>34.0026765025703</v>
+      </c>
+      <c r="K176" t="n">
         <v>4.1127</v>
       </c>
-      <c r="K176" t="n">
+      <c r="L176" t="n">
         <v>4.1127</v>
       </c>
     </row>
@@ -7000,9 +7530,12 @@
         <v>601.8955576706007</v>
       </c>
       <c r="J177" t="n">
+        <v>33.97599423917275</v>
+      </c>
+      <c r="K177" t="n">
         <v>3.8801</v>
       </c>
-      <c r="K177" t="n">
+      <c r="L177" t="n">
         <v>3.8801</v>
       </c>
     </row>
@@ -7037,9 +7570,12 @@
         <v>608.0881549635117</v>
       </c>
       <c r="J178" t="n">
+        <v>34.04111695160729</v>
+      </c>
+      <c r="K178" t="n">
         <v>4.2823</v>
       </c>
-      <c r="K178" t="n">
+      <c r="L178" t="n">
         <v>4.2823</v>
       </c>
     </row>
@@ -7074,9 +7610,12 @@
         <v>617.1244650200674</v>
       </c>
       <c r="J179" t="n">
+        <v>34.02879190556337</v>
+      </c>
+      <c r="K179" t="n">
         <v>5.2706</v>
       </c>
-      <c r="K179" t="n">
+      <c r="L179" t="n">
         <v>5.2706</v>
       </c>
     </row>
@@ -7111,9 +7650,12 @@
         <v>615.1348839691024</v>
       </c>
       <c r="J180" t="n">
+        <v>33.97628803807164</v>
+      </c>
+      <c r="K180" t="n">
         <v>5.5494</v>
       </c>
-      <c r="K180" t="n">
+      <c r="L180" t="n">
         <v>5.5494</v>
       </c>
     </row>
@@ -7148,9 +7690,12 @@
         <v>612.7017656637751</v>
       </c>
       <c r="J181" t="n">
+        <v>34.0296065205753</v>
+      </c>
+      <c r="K181" t="n">
         <v>5.510400000000001</v>
       </c>
-      <c r="K181" t="n">
+      <c r="L181" t="n">
         <v>5.510400000000001</v>
       </c>
     </row>
@@ -7185,9 +7730,12 @@
         <v>621.0556827530249</v>
       </c>
       <c r="J182" t="n">
+        <v>33.97440935805886</v>
+      </c>
+      <c r="K182" t="n">
         <v>4.9909</v>
       </c>
-      <c r="K182" t="n">
+      <c r="L182" t="n">
         <v>4.9909</v>
       </c>
     </row>
@@ -7222,9 +7770,12 @@
         <v>625.6134972946166</v>
       </c>
       <c r="J183" t="n">
+        <v>34.0465800244225</v>
+      </c>
+      <c r="K183" t="n">
         <v>4.9359</v>
       </c>
-      <c r="K183" t="n">
+      <c r="L183" t="n">
         <v>4.9359</v>
       </c>
     </row>
@@ -7259,9 +7810,12 @@
         <v>623.7233503397333</v>
       </c>
       <c r="J184" t="n">
+        <v>33.98942814703451</v>
+      </c>
+      <c r="K184" t="n">
         <v>4.788</v>
       </c>
-      <c r="K184" t="n">
+      <c r="L184" t="n">
         <v>4.788</v>
       </c>
     </row>
@@ -7296,9 +7850,12 @@
         <v>624.8494403380751</v>
       </c>
       <c r="J185" t="n">
+        <v>33.52807676144351</v>
+      </c>
+      <c r="K185" t="n">
         <v>4.8787</v>
       </c>
-      <c r="K185" t="n">
+      <c r="L185" t="n">
         <v>4.8787</v>
       </c>
     </row>
@@ -7333,9 +7890,12 @@
         <v>613.3337860643001</v>
       </c>
       <c r="J186" t="n">
+        <v>27.71737084481723</v>
+      </c>
+      <c r="K186" t="n">
         <v>5.0782</v>
       </c>
-      <c r="K186" t="n">
+      <c r="L186" t="n">
         <v>5.0782</v>
       </c>
     </row>
@@ -7370,9 +7930,12 @@
         <v>614.6825158060832</v>
       </c>
       <c r="J187" t="n">
+        <v>26.02969758952375</v>
+      </c>
+      <c r="K187" t="n">
         <v>5.1765</v>
       </c>
-      <c r="K187" t="n">
+      <c r="L187" t="n">
         <v>5.1765</v>
       </c>
     </row>
@@ -7407,9 +7970,12 @@
         <v>606.9639608297703</v>
       </c>
       <c r="J188" t="n">
+        <v>26.03119957633083</v>
+      </c>
+      <c r="K188" t="n">
         <v>4.633</v>
       </c>
-      <c r="K188" t="n">
+      <c r="L188" t="n">
         <v>4.633</v>
       </c>
     </row>
@@ -7444,9 +8010,12 @@
         <v>615.5689330693491</v>
       </c>
       <c r="J189" t="n">
+        <v>24.04279879136242</v>
+      </c>
+      <c r="K189" t="n">
         <v>4.258900000000001</v>
       </c>
-      <c r="K189" t="n">
+      <c r="L189" t="n">
         <v>4.258900000000001</v>
       </c>
     </row>
@@ -7481,9 +8050,12 @@
         <v>613.0576638689923</v>
       </c>
       <c r="J190" t="n">
+        <v>23.97816855796019</v>
+      </c>
+      <c r="K190" t="n">
         <v>4.0563</v>
       </c>
-      <c r="K190" t="n">
+      <c r="L190" t="n">
         <v>4.0563</v>
       </c>
     </row>
@@ -7518,9 +8090,12 @@
         <v>606.4614129477809</v>
       </c>
       <c r="J191" t="n">
+        <v>23.99163358024366</v>
+      </c>
+      <c r="K191" t="n">
         <v>4.395</v>
       </c>
-      <c r="K191" t="n">
+      <c r="L191" t="n">
         <v>4.395</v>
       </c>
     </row>
@@ -7555,9 +8130,12 @@
         <v>620.3854440692002</v>
       </c>
       <c r="J192" t="n">
+        <v>24.01732687709223</v>
+      </c>
+      <c r="K192" t="n">
         <v>4.4181</v>
       </c>
-      <c r="K192" t="n">
+      <c r="L192" t="n">
         <v>4.4181</v>
       </c>
     </row>
@@ -7592,9 +8170,12 @@
         <v>652.0477056559209</v>
       </c>
       <c r="J193" t="n">
+        <v>24.00131135229904</v>
+      </c>
+      <c r="K193" t="n">
         <v>4.630599999999999</v>
       </c>
-      <c r="K193" t="n">
+      <c r="L193" t="n">
         <v>4.630599999999999</v>
       </c>
     </row>
@@ -7629,9 +8210,12 @@
         <v>685.0734682108139</v>
       </c>
       <c r="J194" t="n">
+        <v>24.01202318192526</v>
+      </c>
+      <c r="K194" t="n">
         <v>4.426299999999999</v>
       </c>
-      <c r="K194" t="n">
+      <c r="L194" t="n">
         <v>4.426299999999999</v>
       </c>
     </row>
@@ -7666,9 +8250,12 @@
         <v>712.5623106170465</v>
       </c>
       <c r="J195" t="n">
+        <v>23.99790129959607</v>
+      </c>
+      <c r="K195" t="n">
         <v>4.1064</v>
       </c>
-      <c r="K195" t="n">
+      <c r="L195" t="n">
         <v>4.1064</v>
       </c>
     </row>
@@ -7703,9 +8290,12 @@
         <v>697.5018804463565</v>
       </c>
       <c r="J196" t="n">
+        <v>24.01427217555467</v>
+      </c>
+      <c r="K196" t="n">
         <v>4.0924</v>
       </c>
-      <c r="K196" t="n">
+      <c r="L196" t="n">
         <v>4.0924</v>
       </c>
     </row>
@@ -7740,9 +8330,12 @@
         <v>697.0652504762789</v>
       </c>
       <c r="J197" t="n">
+        <v>24.02931431247698</v>
+      </c>
+      <c r="K197" t="n">
         <v>4.3546</v>
       </c>
-      <c r="K197" t="n">
+      <c r="L197" t="n">
         <v>4.284599999999999</v>
       </c>
     </row>
@@ -7777,9 +8370,12 @@
         <v>696.2683826215502</v>
       </c>
       <c r="J198" t="n">
+        <v>23.98500408294013</v>
+      </c>
+      <c r="K198" t="n">
         <v>6.6111</v>
       </c>
-      <c r="K198" t="n">
+      <c r="L198" t="n">
         <v>3.8613</v>
       </c>
     </row>
@@ -7814,9 +8410,12 @@
         <v>700.1125</v>
       </c>
       <c r="J199" t="n">
+        <v>39.99357246156868</v>
+      </c>
+      <c r="K199" t="n">
         <v>4.756899999999999</v>
       </c>
-      <c r="K199" t="n">
+      <c r="L199" t="n">
         <v>4.756899999999999</v>
       </c>
     </row>
@@ -7851,9 +8450,12 @@
         <v>708.6985</v>
       </c>
       <c r="J200" t="n">
+        <v>49.95071952318229</v>
+      </c>
+      <c r="K200" t="n">
         <v>4.682200000000001</v>
       </c>
-      <c r="K200" t="n">
+      <c r="L200" t="n">
         <v>4.682200000000001</v>
       </c>
     </row>
@@ -7888,9 +8490,12 @@
         <v>701.6203124913178</v>
       </c>
       <c r="J201" t="n">
+        <v>55.01551097193705</v>
+      </c>
+      <c r="K201" t="n">
         <v>4.665100000000001</v>
       </c>
-      <c r="K201" t="n">
+      <c r="L201" t="n">
         <v>4.665100000000001</v>
       </c>
     </row>
@@ -7925,9 +8530,12 @@
         <v>700.8174274050349</v>
       </c>
       <c r="J202" t="n">
+        <v>55.00719373195634</v>
+      </c>
+      <c r="K202" t="n">
         <v>4.4794</v>
       </c>
-      <c r="K202" t="n">
+      <c r="L202" t="n">
         <v>4.4794</v>
       </c>
     </row>
@@ -7962,9 +8570,12 @@
         <v>725.6051866489614</v>
       </c>
       <c r="J203" t="n">
+        <v>54.98858157873548</v>
+      </c>
+      <c r="K203" t="n">
         <v>4.6136</v>
       </c>
-      <c r="K203" t="n">
+      <c r="L203" t="n">
         <v>4.6136</v>
       </c>
     </row>
@@ -7999,9 +8610,12 @@
         <v>732.1120369663877</v>
       </c>
       <c r="J204" t="n">
+        <v>55.04621965647347</v>
+      </c>
+      <c r="K204" t="n">
         <v>4.5479</v>
       </c>
-      <c r="K204" t="n">
+      <c r="L204" t="n">
         <v>4.5479</v>
       </c>
     </row>
@@ -8036,9 +8650,12 @@
         <v>729.2183866952481</v>
       </c>
       <c r="J205" t="n">
+        <v>54.99038522839444</v>
+      </c>
+      <c r="K205" t="n">
         <v>4.5011</v>
       </c>
-      <c r="K205" t="n">
+      <c r="L205" t="n">
         <v>4.5011</v>
       </c>
     </row>
@@ -8073,9 +8690,12 @@
         <v>733.3186755730108</v>
       </c>
       <c r="J206" t="n">
+        <v>54.95564389998635</v>
+      </c>
+      <c r="K206" t="n">
         <v>4.258400000000001</v>
       </c>
-      <c r="K206" t="n">
+      <c r="L206" t="n">
         <v>4.258400000000001</v>
       </c>
     </row>
@@ -8110,9 +8730,12 @@
         <v>707.8351621849089</v>
       </c>
       <c r="J207" t="n">
+        <v>54.95629784754617</v>
+      </c>
+      <c r="K207" t="n">
         <v>4.718999999999999</v>
       </c>
-      <c r="K207" t="n">
+      <c r="L207" t="n">
         <v>4.718999999999999</v>
       </c>
     </row>
@@ -8147,9 +8770,12 @@
         <v>707.726753306375</v>
       </c>
       <c r="J208" t="n">
+        <v>54.96471599846414</v>
+      </c>
+      <c r="K208" t="n">
         <v>4.908300000000001</v>
       </c>
-      <c r="K208" t="n">
+      <c r="L208" t="n">
         <v>4.908300000000001</v>
       </c>
     </row>
@@ -8184,9 +8810,12 @@
         <v>712.8827054571017</v>
       </c>
       <c r="J209" t="n">
+        <v>56.8115900273262</v>
+      </c>
+      <c r="K209" t="n">
         <v>4.838</v>
       </c>
-      <c r="K209" t="n">
+      <c r="L209" t="n">
         <v>4.838</v>
       </c>
     </row>
@@ -8221,9 +8850,12 @@
         <v>705.1500604347576</v>
       </c>
       <c r="J210" t="n">
+        <v>59.98723161694136</v>
+      </c>
+      <c r="K210" t="n">
         <v>4.9822</v>
       </c>
-      <c r="K210" t="n">
+      <c r="L210" t="n">
         <v>4.9822</v>
       </c>
     </row>
@@ -8258,9 +8890,12 @@
         <v>701.1284661688911</v>
       </c>
       <c r="J211" t="n">
+        <v>60.04605722264136</v>
+      </c>
+      <c r="K211" t="n">
         <v>4.7822</v>
       </c>
-      <c r="K211" t="n">
+      <c r="L211" t="n">
         <v>4.7822</v>
       </c>
     </row>
@@ -8295,9 +8930,12 @@
         <v>706.1688769106435</v>
       </c>
       <c r="J212" t="n">
+        <v>60.04229496135834</v>
+      </c>
+      <c r="K212" t="n">
         <v>4.5009</v>
       </c>
-      <c r="K212" t="n">
+      <c r="L212" t="n">
         <v>4.5009</v>
       </c>
     </row>
@@ -8332,9 +8970,12 @@
         <v>702.2090959868907</v>
       </c>
       <c r="J213" t="n">
+        <v>59.95365232464312</v>
+      </c>
+      <c r="K213" t="n">
         <v>4.215999999999999</v>
       </c>
-      <c r="K213" t="n">
+      <c r="L213" t="n">
         <v>4.215999999999999</v>
       </c>
     </row>
@@ -8369,9 +9010,12 @@
         <v>704.8466549896474</v>
       </c>
       <c r="J214" t="n">
+        <v>60.01305347844956</v>
+      </c>
+      <c r="K214" t="n">
         <v>3.926</v>
       </c>
-      <c r="K214" t="n">
+      <c r="L214" t="n">
         <v>4.1265</v>
       </c>
     </row>
@@ -8406,9 +9050,12 @@
         <v>701.6448571268435</v>
       </c>
       <c r="J215" t="n">
+        <v>60.00186500674252</v>
+      </c>
+      <c r="K215" t="n">
         <v>4.3598</v>
       </c>
-      <c r="K215" t="n">
+      <c r="L215" t="n">
         <v>4.5598</v>
       </c>
     </row>
@@ -8443,9 +9090,12 @@
         <v>709.8846786799558</v>
       </c>
       <c r="J216" t="n">
+        <v>60.00974704682389</v>
+      </c>
+      <c r="K216" t="n">
         <v>4.7998</v>
       </c>
-      <c r="K216" t="n">
+      <c r="L216" t="n">
         <v>4.9998</v>
       </c>
     </row>
@@ -8480,9 +9130,12 @@
         <v>700.2654504404167</v>
       </c>
       <c r="J217" t="n">
+        <v>54.97915108590073</v>
+      </c>
+      <c r="K217" t="n">
         <v>4.9887</v>
       </c>
-      <c r="K217" t="n">
+      <c r="L217" t="n">
         <v>5.189399999999999</v>
       </c>
     </row>
@@ -8517,9 +9170,12 @@
         <v>700.9890289232479</v>
       </c>
       <c r="J218" t="n">
+        <v>50.64273267518846</v>
+      </c>
+      <c r="K218" t="n">
         <v>4.2674</v>
       </c>
-      <c r="K218" t="n">
+      <c r="L218" t="n">
         <v>4.4696</v>
       </c>
     </row>
@@ -8554,9 +9210,12 @@
         <v>704.5957173661828</v>
       </c>
       <c r="J219" t="n">
+        <v>36.90059328942477</v>
+      </c>
+      <c r="K219" t="n">
         <v>4.001500000000001</v>
       </c>
-      <c r="K219" t="n">
+      <c r="L219" t="n">
         <v>4.001500000000001</v>
       </c>
     </row>
@@ -8591,9 +9250,12 @@
         <v>707.497386499138</v>
       </c>
       <c r="J220" t="n">
+        <v>30.03544663981015</v>
+      </c>
+      <c r="K220" t="n">
         <v>4.3872</v>
       </c>
-      <c r="K220" t="n">
+      <c r="L220" t="n">
         <v>4.3872</v>
       </c>
     </row>
@@ -8628,9 +9290,12 @@
         <v>711.2698979007999</v>
       </c>
       <c r="J221" t="n">
+        <v>30.01673494549837</v>
+      </c>
+      <c r="K221" t="n">
         <v>4.9088</v>
       </c>
-      <c r="K221" t="n">
+      <c r="L221" t="n">
         <v>4.9088</v>
       </c>
     </row>
@@ -8665,9 +9330,12 @@
         <v>707.9655786905256</v>
       </c>
       <c r="J222" t="n">
+        <v>30.01558358148519</v>
+      </c>
+      <c r="K222" t="n">
         <v>5.507</v>
       </c>
-      <c r="K222" t="n">
+      <c r="L222" t="n">
         <v>5.507</v>
       </c>
     </row>
@@ -8684,7 +9352,9 @@
       <c r="D223" t="n">
         <v>3.0044</v>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>3.0044</v>
+      </c>
       <c r="F223" t="n">
         <v>53.6158940397351</v>
       </c>
@@ -8700,9 +9370,14 @@
         <v>704.9310967914874</v>
       </c>
       <c r="J223" t="n">
+        <v>33.76216499502765</v>
+      </c>
+      <c r="K223" t="n">
         <v>5.6235</v>
       </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>5.6235</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -8717,7 +9392,9 @@
       <c r="D224" t="n">
         <v>3.004</v>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>3.004</v>
+      </c>
       <c r="F224" t="n">
         <v>53.6026490066225</v>
       </c>
@@ -8733,9 +9410,14 @@
         <v>702.2808569619792</v>
       </c>
       <c r="J224" t="n">
+        <v>40.01248178906478</v>
+      </c>
+      <c r="K224" t="n">
         <v>5.067600000000001</v>
       </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>5.067600000000001</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -8750,7 +9432,9 @@
       <c r="D225" t="n">
         <v>3.0008</v>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>3.0008</v>
+      </c>
       <c r="F225" t="n">
         <v>53.49668874172185</v>
       </c>
@@ -8766,9 +9450,14 @@
         <v>702.3848485339581</v>
       </c>
       <c r="J225" t="n">
+        <v>44.9895809483314</v>
+      </c>
+      <c r="K225" t="n">
         <v>4.823</v>
       </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>4.823</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -8783,7 +9472,9 @@
       <c r="D226" t="n">
         <v>3.0025</v>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>3.0025</v>
+      </c>
       <c r="F226" t="n">
         <v>53.55298013245033</v>
       </c>
@@ -8799,9 +9490,14 @@
         <v>704.289558223854</v>
       </c>
       <c r="J226" t="n">
+        <v>52.89017786085126</v>
+      </c>
+      <c r="K226" t="n">
         <v>4.719099999999999</v>
       </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>4.719099999999999</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -8816,7 +9512,9 @@
       <c r="D227" t="n">
         <v>3.0037</v>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>3.0037</v>
+      </c>
       <c r="F227" t="n">
         <v>53.59271523178808</v>
       </c>
@@ -8832,9 +9530,14 @@
         <v>700.7343639771875</v>
       </c>
       <c r="J227" t="n">
+        <v>60.00847419746199</v>
+      </c>
+      <c r="K227" t="n">
         <v>4.8826</v>
       </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>4.8826</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -8849,7 +9552,9 @@
       <c r="D228" t="n">
         <v>2.771</v>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>2.771</v>
+      </c>
       <c r="F228" t="n">
         <v>45.88741721854304</v>
       </c>
@@ -8865,9 +9570,14 @@
         <v>704.2544416815534</v>
       </c>
       <c r="J228" t="n">
+        <v>59.99252187763185</v>
+      </c>
+      <c r="K228" t="n">
         <v>4.4253</v>
       </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>4.4253</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -8882,7 +9592,9 @@
       <c r="D229" t="n">
         <v>3.0071</v>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="n">
+        <v>3.0071</v>
+      </c>
       <c r="F229" t="n">
         <v>53.70529801324503</v>
       </c>
@@ -8898,9 +9610,14 @@
         <v>702.6799797055627</v>
       </c>
       <c r="J229" t="n">
+        <v>60.55388118191345</v>
+      </c>
+      <c r="K229" t="n">
         <v>4.7196</v>
       </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>4.7196</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -8933,9 +9650,12 @@
         <v>701.6653555270674</v>
       </c>
       <c r="J230" t="n">
+        <v>65.05950399348028</v>
+      </c>
+      <c r="K230" t="n">
         <v>4.66</v>
       </c>
-      <c r="K230" t="n">
+      <c r="L230" t="n">
         <v>4.66</v>
       </c>
     </row>
@@ -8970,9 +9690,12 @@
         <v>702.6179928656807</v>
       </c>
       <c r="J231" t="n">
+        <v>64.97129373788596</v>
+      </c>
+      <c r="K231" t="n">
         <v>4.079000000000001</v>
       </c>
-      <c r="K231" t="n">
+      <c r="L231" t="n">
         <v>4.079000000000001</v>
       </c>
     </row>
@@ -9007,9 +9730,12 @@
         <v>702.1593689610287</v>
       </c>
       <c r="J232" t="n">
+        <v>62.94867227279452</v>
+      </c>
+      <c r="K232" t="n">
         <v>4.035799999999999</v>
       </c>
-      <c r="K232" t="n">
+      <c r="L232" t="n">
         <v>4.035799999999999</v>
       </c>
     </row>
@@ -9044,9 +9770,12 @@
         <v>701.9578233934984</v>
       </c>
       <c r="J233" t="n">
+        <v>54.98905876338085</v>
+      </c>
+      <c r="K233" t="n">
         <v>4.5253</v>
       </c>
-      <c r="K233" t="n">
+      <c r="L233" t="n">
         <v>4.5253</v>
       </c>
     </row>
@@ -9081,9 +9810,12 @@
         <v>697.0655229705812</v>
       </c>
       <c r="J234" t="n">
+        <v>55.01634887430591</v>
+      </c>
+      <c r="K234" t="n">
         <v>5.2104</v>
       </c>
-      <c r="K234" t="n">
+      <c r="L234" t="n">
         <v>5.2104</v>
       </c>
     </row>
@@ -9118,9 +9850,12 @@
         <v>705.0253571603597</v>
       </c>
       <c r="J235" t="n">
+        <v>53.331415130148</v>
+      </c>
+      <c r="K235" t="n">
         <v>5.0587</v>
       </c>
-      <c r="K235" t="n">
+      <c r="L235" t="n">
         <v>5.0587</v>
       </c>
     </row>
@@ -9155,9 +9890,12 @@
         <v>705.8507470847526</v>
       </c>
       <c r="J236" t="n">
+        <v>50.01057255488245</v>
+      </c>
+      <c r="K236" t="n">
         <v>4.750099999999999</v>
       </c>
-      <c r="K236" t="n">
+      <c r="L236" t="n">
         <v>4.750099999999999</v>
       </c>
     </row>
@@ -9192,9 +9930,12 @@
         <v>659.980690869472</v>
       </c>
       <c r="J237" t="n">
+        <v>50.00146285571647</v>
+      </c>
+      <c r="K237" t="n">
         <v>4.5722</v>
       </c>
-      <c r="K237" t="n">
+      <c r="L237" t="n">
         <v>4.5722</v>
       </c>
     </row>
@@ -9229,9 +9970,12 @@
         <v>701.1623622104432</v>
       </c>
       <c r="J238" t="n">
+        <v>49.9884219248498</v>
+      </c>
+      <c r="K238" t="n">
         <v>5.355</v>
       </c>
-      <c r="K238" t="n">
+      <c r="L238" t="n">
         <v>4.261500000000001</v>
       </c>
     </row>
@@ -9266,9 +10010,12 @@
         <v>706.1501406536821</v>
       </c>
       <c r="J239" t="n">
+        <v>60.04388806146861</v>
+      </c>
+      <c r="K239" t="n">
         <v>4.0344</v>
       </c>
-      <c r="K239" t="n">
+      <c r="L239" t="n">
         <v>4.0344</v>
       </c>
     </row>
@@ -9303,9 +10050,12 @@
         <v>693.746840710959</v>
       </c>
       <c r="J240" t="n">
+        <v>59.96423703691088</v>
+      </c>
+      <c r="K240" t="n">
         <v>5.0982</v>
       </c>
-      <c r="K240" t="n">
+      <c r="L240" t="n">
         <v>5.0982</v>
       </c>
     </row>
@@ -9340,9 +10090,12 @@
         <v>694.8251682111929</v>
       </c>
       <c r="J241" t="n">
+        <v>59.72725499688006</v>
+      </c>
+      <c r="K241" t="n">
         <v>5.3026</v>
       </c>
-      <c r="K241" t="n">
+      <c r="L241" t="n">
         <v>5.3026</v>
       </c>
     </row>
@@ -9377,9 +10130,12 @@
         <v>713.5886966666666</v>
       </c>
       <c r="J242" t="n">
+        <v>59.97852852760762</v>
+      </c>
+      <c r="K242" t="n">
         <v>4.848</v>
       </c>
-      <c r="K242" t="n">
+      <c r="L242" t="n">
         <v>4.848</v>
       </c>
     </row>
@@ -9414,9 +10170,12 @@
         <v>697.1232936</v>
       </c>
       <c r="J243" t="n">
+        <v>59.96069903810197</v>
+      </c>
+      <c r="K243" t="n">
         <v>4.1191</v>
       </c>
-      <c r="K243" t="n">
+      <c r="L243" t="n">
         <v>4.526300000000001</v>
       </c>
     </row>
@@ -9451,9 +10210,12 @@
         <v>699.2</v>
       </c>
       <c r="J244" t="n">
+        <v>59.78260869565217</v>
+      </c>
+      <c r="K244" t="n">
         <v>4.7276</v>
       </c>
-      <c r="K244" t="n">
+      <c r="L244" t="n">
         <v>4.7265</v>
       </c>
     </row>
@@ -9488,9 +10250,12 @@
         <v>670</v>
       </c>
       <c r="J245" t="n">
+        <v>60</v>
+      </c>
+      <c r="K245" t="n">
         <v>4.4955</v>
       </c>
-      <c r="K245" t="n">
+      <c r="L245" t="n">
         <v>4.5984</v>
       </c>
     </row>
@@ -9525,9 +10290,12 @@
         <v>639.708</v>
       </c>
       <c r="J246" t="n">
+        <v>60</v>
+      </c>
+      <c r="K246" t="n">
         <v>4.7575</v>
       </c>
-      <c r="K246" t="n">
+      <c r="L246" t="n">
         <v>4.7575</v>
       </c>
     </row>
@@ -9562,9 +10330,12 @@
         <v>710.833</v>
       </c>
       <c r="J247" t="n">
+        <v>60</v>
+      </c>
+      <c r="K247" t="n">
         <v>5.036</v>
       </c>
-      <c r="K247" t="n">
+      <c r="L247" t="n">
         <v>5.036</v>
       </c>
     </row>
@@ -9599,9 +10370,12 @@
         <v>714.658</v>
       </c>
       <c r="J248" t="n">
+        <v>60</v>
+      </c>
+      <c r="K248" t="n">
         <v>4.662100000000001</v>
       </c>
-      <c r="K248" t="n">
+      <c r="L248" t="n">
         <v>4.662100000000001</v>
       </c>
     </row>
@@ -9636,9 +10410,12 @@
         <v>742.292</v>
       </c>
       <c r="J249" t="n">
+        <v>65</v>
+      </c>
+      <c r="K249" t="n">
         <v>4.527877458333332</v>
       </c>
-      <c r="K249" t="n">
+      <c r="L249" t="n">
         <v>4.527877458333332</v>
       </c>
     </row>
@@ -9673,9 +10450,12 @@
         <v>714.2062853811511</v>
       </c>
       <c r="J250" t="n">
+        <v>65</v>
+      </c>
+      <c r="K250" t="n">
         <v>5.169900208333333</v>
       </c>
-      <c r="K250" t="n">
+      <c r="L250" t="n">
         <v>5.169900208333333</v>
       </c>
     </row>
@@ -9710,9 +10490,12 @@
         <v>685.0365707623023</v>
       </c>
       <c r="J251" t="n">
+        <v>65</v>
+      </c>
+      <c r="K251" t="n">
         <v>4.959130416666667</v>
       </c>
-      <c r="K251" t="n">
+      <c r="L251" t="n">
         <v>4.959130416666667</v>
       </c>
     </row>
@@ -9747,9 +10530,12 @@
         <v>688.4616927319069</v>
       </c>
       <c r="J252" t="n">
+        <v>65</v>
+      </c>
+      <c r="K252" t="n">
         <v>4.936596041666666</v>
       </c>
-      <c r="K252" t="n">
+      <c r="L252" t="n">
         <v>4.936596041666666</v>
       </c>
     </row>
@@ -9784,9 +10570,12 @@
         <v>682.0754362586433</v>
       </c>
       <c r="J253" t="n">
+        <v>65</v>
+      </c>
+      <c r="K253" t="n">
         <v>4.805801333333333</v>
       </c>
-      <c r="K253" t="n">
+      <c r="L253" t="n">
         <v>4.805801333333333</v>
       </c>
     </row>
@@ -9821,9 +10610,12 @@
         <v>690.0749599097984</v>
       </c>
       <c r="J254" t="n">
+        <v>65</v>
+      </c>
+      <c r="K254" t="n">
         <v>4.339823791666666</v>
       </c>
-      <c r="K254" t="n">
+      <c r="L254" t="n">
         <v>4.339823791666666</v>
       </c>
     </row>
@@ -9858,9 +10650,12 @@
         <v>690.1061483119965</v>
       </c>
       <c r="J255" t="n">
+        <v>65</v>
+      </c>
+      <c r="K255" t="n">
         <v>4.731896041666666</v>
       </c>
-      <c r="K255" t="n">
+      <c r="L255" t="n">
         <v>4.731896041666666</v>
       </c>
     </row>
@@ -9895,9 +10690,12 @@
         <v>711.2766156664833</v>
       </c>
       <c r="J256" t="n">
+        <v>65</v>
+      </c>
+      <c r="K256" t="n">
         <v>5.267204958333334</v>
       </c>
-      <c r="K256" t="n">
+      <c r="L256" t="n">
         <v>5.267204958333334</v>
       </c>
     </row>
@@ -9932,9 +10730,12 @@
         <v>753.3405635333332</v>
       </c>
       <c r="J257" t="n">
+        <v>65</v>
+      </c>
+      <c r="K257" t="n">
         <v>5.348134</v>
       </c>
-      <c r="K257" t="n">
+      <c r="L257" t="n">
         <v>5.348134</v>
       </c>
     </row>
@@ -9969,9 +10770,12 @@
         <v>781.708666666657</v>
       </c>
       <c r="J258" t="n">
+        <v>10</v>
+      </c>
+      <c r="K258" t="n">
         <v>4.19491775</v>
       </c>
-      <c r="K258" t="n">
+      <c r="L258" t="n">
         <v>4.98471775</v>
       </c>
     </row>
@@ -10006,9 +10810,12 @@
         <v>769.4169999999637</v>
       </c>
       <c r="J259" t="n">
+        <v>10</v>
+      </c>
+      <c r="K259" t="n">
         <v>3.592127833333333</v>
       </c>
-      <c r="K259" t="n">
+      <c r="L259" t="n">
         <v>4.584227833333332</v>
       </c>
     </row>
@@ -10043,9 +10850,12 @@
         <v>793.791666666606</v>
       </c>
       <c r="J260" t="n">
+        <v>10</v>
+      </c>
+      <c r="K260" t="n">
         <v>3.396102375</v>
       </c>
-      <c r="K260" t="n">
+      <c r="L260" t="n">
         <v>4.418202375</v>
       </c>
     </row>
@@ -10080,9 +10890,12 @@
         <v>804.3749999999927</v>
       </c>
       <c r="J261" t="n">
+        <v>10</v>
+      </c>
+      <c r="K261" t="n">
         <v>3.045082166666667</v>
       </c>
-      <c r="K261" t="n">
+      <c r="L261" t="n">
         <v>4.070582166666667</v>
       </c>
     </row>
@@ -10117,9 +10930,12 @@
         <v>806.2080000000145</v>
       </c>
       <c r="J262" t="n">
+        <v>10</v>
+      </c>
+      <c r="K262" t="n">
         <v>2.564387791666667</v>
       </c>
-      <c r="K262" t="n">
+      <c r="L262" t="n">
         <v>4.230287791666667</v>
       </c>
     </row>
@@ -10154,9 +10970,12 @@
         <v>783.3901199673249</v>
       </c>
       <c r="J263" t="n">
+        <v>10</v>
+      </c>
+      <c r="K263" t="n">
         <v>1.887444583333333</v>
       </c>
-      <c r="K263" t="n">
+      <c r="L263" t="n">
         <v>3.793944583333333</v>
       </c>
     </row>
@@ -10191,9 +11010,12 @@
         <v>719.6882640656402</v>
       </c>
       <c r="J264" t="n">
+        <v>10</v>
+      </c>
+      <c r="K264" t="n">
         <v>2.244751375</v>
       </c>
-      <c r="K264" t="n">
+      <c r="L264" t="n">
         <v>4.151251375</v>
       </c>
     </row>
@@ -10228,9 +11050,12 @@
         <v>686.9183953327959</v>
       </c>
       <c r="J265" t="n">
+        <v>10</v>
+      </c>
+      <c r="K265" t="n">
         <v>5.014620874999999</v>
       </c>
-      <c r="K265" t="n">
+      <c r="L265" t="n">
         <v>5.014620874999999</v>
       </c>
     </row>
@@ -10265,9 +11090,12 @@
         <v>698.9922524068218</v>
       </c>
       <c r="J266" t="n">
+        <v>10</v>
+      </c>
+      <c r="K266" t="n">
         <v>4.506552249999999</v>
       </c>
-      <c r="K266" t="n">
+      <c r="L266" t="n">
         <v>4.506552249999999</v>
       </c>
     </row>
@@ -10302,9 +11130,12 @@
         <v>700.793836150493</v>
       </c>
       <c r="J267" t="n">
+        <v>10</v>
+      </c>
+      <c r="K267" t="n">
         <v>4.311245916666667</v>
       </c>
-      <c r="K267" t="n">
+      <c r="L267" t="n">
         <v>4.311245916666667</v>
       </c>
     </row>
@@ -10339,9 +11170,12 @@
         <v>705.4779094327565</v>
       </c>
       <c r="J268" t="n">
+        <v>10</v>
+      </c>
+      <c r="K268" t="n">
         <v>4.206216875</v>
       </c>
-      <c r="K268" t="n">
+      <c r="L268" t="n">
         <v>4.206216875</v>
       </c>
     </row>
@@ -10376,9 +11210,12 @@
         <v>710.6462911522665</v>
       </c>
       <c r="J269" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K269" t="n">
         <v>4.717159416666666</v>
       </c>
-      <c r="K269" t="n">
+      <c r="L269" t="n">
         <v>4.717159416666666</v>
       </c>
     </row>
@@ -10413,9 +11250,12 @@
         <v>736.709895377972</v>
       </c>
       <c r="J270" t="n">
+        <v>20</v>
+      </c>
+      <c r="K270" t="n">
         <v>5.180080583333333</v>
       </c>
-      <c r="K270" t="n">
+      <c r="L270" t="n">
         <v>5.180080583333333</v>
       </c>
     </row>
@@ -10450,9 +11290,12 @@
         <v>734.4513921519512</v>
       </c>
       <c r="J271" t="n">
+        <v>20</v>
+      </c>
+      <c r="K271" t="n">
         <v>4.847795333333334</v>
       </c>
-      <c r="K271" t="n">
+      <c r="L271" t="n">
         <v>4.847795333333334</v>
       </c>
     </row>
@@ -10487,9 +11330,12 @@
         <v>751.7091309232659</v>
       </c>
       <c r="J272" t="n">
+        <v>20</v>
+      </c>
+      <c r="K272" t="n">
         <v>4.691910041666667</v>
       </c>
-      <c r="K272" t="n">
+      <c r="L272" t="n">
         <v>4.691910041666667</v>
       </c>
     </row>
@@ -10524,9 +11370,12 @@
         <v>796.5820815934497</v>
       </c>
       <c r="J273" t="n">
+        <v>20</v>
+      </c>
+      <c r="K273" t="n">
         <v>4.451529666666667</v>
       </c>
-      <c r="K273" t="n">
+      <c r="L273" t="n">
         <v>4.451529666666667</v>
       </c>
     </row>
@@ -10561,9 +11410,12 @@
         <v>796.5987537066552</v>
       </c>
       <c r="J274" t="n">
+        <v>20</v>
+      </c>
+      <c r="K274" t="n">
         <v>4.520205833333334</v>
       </c>
-      <c r="K274" t="n">
+      <c r="L274" t="n">
         <v>4.520205833333334</v>
       </c>
     </row>
@@ -10598,9 +11450,12 @@
         <v>798.6131303184193</v>
       </c>
       <c r="J275" t="n">
+        <v>20</v>
+      </c>
+      <c r="K275" t="n">
         <v>4.742093958333334</v>
       </c>
-      <c r="K275" t="n">
+      <c r="L275" t="n">
         <v>4.742093958333334</v>
       </c>
     </row>
@@ -10635,9 +11490,12 @@
         <v>799.6482996777595</v>
       </c>
       <c r="J276" t="n">
+        <v>20</v>
+      </c>
+      <c r="K276" t="n">
         <v>5.15693575</v>
       </c>
-      <c r="K276" t="n">
+      <c r="L276" t="n">
         <v>5.15693575</v>
       </c>
     </row>
@@ -10672,9 +11530,12 @@
         <v>797.9255136981418</v>
       </c>
       <c r="J277" t="n">
+        <v>20</v>
+      </c>
+      <c r="K277" t="n">
         <v>4.987314</v>
       </c>
-      <c r="K277" t="n">
+      <c r="L277" t="n">
         <v>4.987314</v>
       </c>
     </row>
@@ -10709,9 +11570,12 @@
         <v>798.0895407656907</v>
       </c>
       <c r="J278" t="n">
+        <v>20</v>
+      </c>
+      <c r="K278" t="n">
         <v>4.745278166666666</v>
       </c>
-      <c r="K278" t="n">
+      <c r="L278" t="n">
         <v>4.745278166666666</v>
       </c>
     </row>
@@ -10746,9 +11610,12 @@
         <v>796.479544378151</v>
       </c>
       <c r="J279" t="n">
+        <v>20</v>
+      </c>
+      <c r="K279" t="n">
         <v>4.626147791666666</v>
       </c>
-      <c r="K279" t="n">
+      <c r="L279" t="n">
         <v>4.626147791666666</v>
       </c>
     </row>
@@ -10783,9 +11650,12 @@
         <v>757.0687506864892</v>
       </c>
       <c r="J280" t="n">
+        <v>16</v>
+      </c>
+      <c r="K280" t="n">
         <v>4.44424075</v>
       </c>
-      <c r="K280" t="n">
+      <c r="L280" t="n">
         <v>4.44424075</v>
       </c>
     </row>
@@ -10820,9 +11690,12 @@
         <v>749.9784095370654</v>
       </c>
       <c r="J281" t="n">
+        <v>16</v>
+      </c>
+      <c r="K281" t="n">
         <v>4.532020416666668</v>
       </c>
-      <c r="K281" t="n">
+      <c r="L281" t="n">
         <v>4.532020416666668</v>
       </c>
     </row>
@@ -10857,9 +11730,12 @@
         <v>748.5517401816581</v>
       </c>
       <c r="J282" t="n">
+        <v>16</v>
+      </c>
+      <c r="K282" t="n">
         <v>4.647841833333333</v>
       </c>
-      <c r="K282" t="n">
+      <c r="L282" t="n">
         <v>4.647841833333333</v>
       </c>
     </row>
@@ -10894,9 +11770,12 @@
         <v>754.0874196666667</v>
       </c>
       <c r="J283" t="n">
+        <v>16</v>
+      </c>
+      <c r="K283" t="n">
         <v>5.238250639100833</v>
       </c>
-      <c r="K283" t="n">
+      <c r="L283" t="n">
         <v>5.238250639100833</v>
       </c>
     </row>
@@ -10931,9 +11810,12 @@
         <v>747.1605955614585</v>
       </c>
       <c r="J284" t="n">
+        <v>16</v>
+      </c>
+      <c r="K284" t="n">
         <v>5.081198625</v>
       </c>
-      <c r="K284" t="n">
+      <c r="L284" t="n">
         <v>5.081198625</v>
       </c>
     </row>
@@ -10968,9 +11850,12 @@
         <v>744.9826451947915</v>
       </c>
       <c r="J285" t="n">
+        <v>16</v>
+      </c>
+      <c r="K285" t="n">
         <v>4.97474125</v>
       </c>
-      <c r="K285" t="n">
+      <c r="L285" t="n">
         <v>4.97474125</v>
       </c>
     </row>
@@ -11005,9 +11890,12 @@
         <v>754.7440230737002</v>
       </c>
       <c r="J286" t="n">
+        <v>16</v>
+      </c>
+      <c r="K286" t="n">
         <v>5.297795416666667</v>
       </c>
-      <c r="K286" t="n">
+      <c r="L286" t="n">
         <v>5.297795416666667</v>
       </c>
     </row>
@@ -11042,9 +11930,12 @@
         <v>750.2699657279751</v>
       </c>
       <c r="J287" t="n">
+        <v>16</v>
+      </c>
+      <c r="K287" t="n">
         <v>5.589310833333333</v>
       </c>
-      <c r="K287" t="n">
+      <c r="L287" t="n">
         <v>5.589310833333333</v>
       </c>
     </row>
@@ -11079,9 +11970,12 @@
         <v>743.3304137443248</v>
       </c>
       <c r="J288" t="n">
+        <v>16</v>
+      </c>
+      <c r="K288" t="n">
         <v>5.937233749999999</v>
       </c>
-      <c r="K288" t="n">
+      <c r="L288" t="n">
         <v>5.937233749999999</v>
       </c>
     </row>
@@ -11116,9 +12010,12 @@
         <v>743.7296987247915</v>
       </c>
       <c r="J289" t="n">
+        <v>16</v>
+      </c>
+      <c r="K289" t="n">
         <v>5.76476875</v>
       </c>
-      <c r="K289" t="n">
+      <c r="L289" t="n">
         <v>5.76476875</v>
       </c>
     </row>
@@ -11153,9 +12050,12 @@
         <v>749.6634560000001</v>
       </c>
       <c r="J290" t="n">
+        <v>16</v>
+      </c>
+      <c r="K290" t="n">
         <v>4.916930000000001</v>
       </c>
-      <c r="K290" t="n">
+      <c r="L290" t="n">
         <v>4.916930000000001</v>
       </c>
     </row>
@@ -11190,9 +12090,12 @@
         <v>750.9457441870231</v>
       </c>
       <c r="J291" t="n">
+        <v>16</v>
+      </c>
+      <c r="K291" t="n">
         <v>4.451652083333333</v>
       </c>
-      <c r="K291" t="n">
+      <c r="L291" t="n">
         <v>4.451652083333333</v>
       </c>
     </row>
@@ -11227,9 +12130,12 @@
         <v>752.8998250483992</v>
       </c>
       <c r="J292" t="n">
+        <v>16</v>
+      </c>
+      <c r="K292" t="n">
         <v>4.538292500000001</v>
       </c>
-      <c r="K292" t="n">
+      <c r="L292" t="n">
         <v>4.538292500000001</v>
       </c>
     </row>
@@ -11264,9 +12170,12 @@
         <v>753.3202384833334</v>
       </c>
       <c r="J293" t="n">
+        <v>16</v>
+      </c>
+      <c r="K293" t="n">
         <v>4.822375833333333</v>
       </c>
-      <c r="K293" t="n">
+      <c r="L293" t="n">
         <v>4.822375833333333</v>
       </c>
     </row>
@@ -11301,9 +12210,12 @@
         <v>749.5626351745094</v>
       </c>
       <c r="J294" t="n">
+        <v>16</v>
+      </c>
+      <c r="K294" t="n">
         <v>5.08052375</v>
       </c>
-      <c r="K294" t="n">
+      <c r="L294" t="n">
         <v>5.08052375</v>
       </c>
     </row>
@@ -11338,9 +12250,12 @@
         <v>747.2747916385348</v>
       </c>
       <c r="J295" t="n">
+        <v>16</v>
+      </c>
+      <c r="K295" t="n">
         <v>4.797854583333333</v>
       </c>
-      <c r="K295" t="n">
+      <c r="L295" t="n">
         <v>4.797854583333333</v>
       </c>
     </row>
@@ -11375,9 +12290,12 @@
         <v>745.2510598296629</v>
       </c>
       <c r="J296" t="n">
+        <v>16</v>
+      </c>
+      <c r="K296" t="n">
         <v>4.339463333333333</v>
       </c>
-      <c r="K296" t="n">
+      <c r="L296" t="n">
         <v>4.339463333333333</v>
       </c>
     </row>
@@ -11412,9 +12330,12 @@
         <v>749.4373224740056</v>
       </c>
       <c r="J297" t="n">
+        <v>16</v>
+      </c>
+      <c r="K297" t="n">
         <v>4.2538975</v>
       </c>
-      <c r="K297" t="n">
+      <c r="L297" t="n">
         <v>4.2538975</v>
       </c>
     </row>
@@ -11449,9 +12370,12 @@
         <v>749.2160033146869</v>
       </c>
       <c r="J298" t="n">
+        <v>16</v>
+      </c>
+      <c r="K298" t="n">
         <v>4.303145534300417</v>
       </c>
-      <c r="K298" t="n">
+      <c r="L298" t="n">
         <v>4.303145534300417</v>
       </c>
     </row>
@@ -11486,9 +12410,12 @@
         <v>750.9129023772815</v>
       </c>
       <c r="J299" t="n">
+        <v>16</v>
+      </c>
+      <c r="K299" t="n">
         <v>4.219817916666667</v>
       </c>
-      <c r="K299" t="n">
+      <c r="L299" t="n">
         <v>4.788117916666667</v>
       </c>
     </row>
@@ -11523,9 +12450,12 @@
         <v>764.5732974124243</v>
       </c>
       <c r="J300" t="n">
+        <v>16</v>
+      </c>
+      <c r="K300" t="n">
         <v>3.263432083333333</v>
       </c>
-      <c r="K300" t="n">
+      <c r="L300" t="n">
         <v>4.716032083333332</v>
       </c>
     </row>
@@ -11560,9 +12490,12 @@
         <v>795.2692330747659</v>
       </c>
       <c r="J301" t="n">
+        <v>16</v>
+      </c>
+      <c r="K301" t="n">
         <v>4.189934166666666</v>
       </c>
-      <c r="K301" t="n">
+      <c r="L301" t="n">
         <v>4.721234166666666</v>
       </c>
     </row>
@@ -11597,9 +12530,12 @@
         <v>798.812072245631</v>
       </c>
       <c r="J302" t="n">
+        <v>16</v>
+      </c>
+      <c r="K302" t="n">
         <v>4.325170000000001</v>
       </c>
-      <c r="K302" t="n">
+      <c r="L302" t="n">
         <v>4.35167</v>
       </c>
     </row>
@@ -11634,9 +12570,12 @@
         <v>798.6912007171721</v>
       </c>
       <c r="J303" t="n">
+        <v>16</v>
+      </c>
+      <c r="K303" t="n">
         <v>4.49271</v>
       </c>
-      <c r="K303" t="n">
+      <c r="L303" t="n">
         <v>4.49141</v>
       </c>
     </row>
@@ -11671,9 +12610,12 @@
         <v>799.5658182001736</v>
       </c>
       <c r="J304" t="n">
+        <v>16</v>
+      </c>
+      <c r="K304" t="n">
         <v>4.426484583333334</v>
       </c>
-      <c r="K304" t="n">
+      <c r="L304" t="n">
         <v>4.520084583333334</v>
       </c>
     </row>
@@ -11708,9 +12650,12 @@
         <v>799.0079321601241</v>
       </c>
       <c r="J305" t="n">
+        <v>16</v>
+      </c>
+      <c r="K305" t="n">
         <v>4.787475833333334</v>
       </c>
-      <c r="K305" t="n">
+      <c r="L305" t="n">
         <v>4.784575833333334</v>
       </c>
     </row>
@@ -11745,9 +12690,12 @@
         <v>854.1163125609912</v>
       </c>
       <c r="J306" t="n">
+        <v>60</v>
+      </c>
+      <c r="K306" t="n">
         <v>5.264378666666667</v>
       </c>
-      <c r="K306" t="n">
+      <c r="L306" t="n">
         <v>5.261978666666668</v>
       </c>
     </row>
@@ -11782,9 +12730,12 @@
         <v>862.8995744279961</v>
       </c>
       <c r="J307" t="n">
+        <v>60</v>
+      </c>
+      <c r="K307" t="n">
         <v>5.204743916666667</v>
       </c>
-      <c r="K307" t="n">
+      <c r="L307" t="n">
         <v>5.200443916666667</v>
       </c>
     </row>
@@ -11819,9 +12770,12 @@
         <v>865.4714215882642</v>
       </c>
       <c r="J308" t="n">
+        <v>60</v>
+      </c>
+      <c r="K308" t="n">
         <v>4.713955708333334</v>
       </c>
-      <c r="K308" t="n">
+      <c r="L308" t="n">
         <v>4.709555708333333</v>
       </c>
     </row>
@@ -11856,9 +12810,12 @@
         <v>836.1828362002489</v>
       </c>
       <c r="J309" t="n">
+        <v>60</v>
+      </c>
+      <c r="K309" t="n">
         <v>4.814692624999999</v>
       </c>
-      <c r="K309" t="n">
+      <c r="L309" t="n">
         <v>4.815892624999999</v>
       </c>
     </row>
@@ -11893,9 +12850,12 @@
         <v>849.6649216018332</v>
       </c>
       <c r="J310" t="n">
+        <v>60</v>
+      </c>
+      <c r="K310" t="n">
         <v>4.9943845</v>
       </c>
-      <c r="K310" t="n">
+      <c r="L310" t="n">
         <v>4.9969845</v>
       </c>
     </row>
@@ -11930,9 +12890,12 @@
         <v>859.8759191566267</v>
       </c>
       <c r="J311" t="n">
+        <v>60</v>
+      </c>
+      <c r="K311" t="n">
         <v>5.166990500000001</v>
       </c>
-      <c r="K311" t="n">
+      <c r="L311" t="n">
         <v>5.166790500000001</v>
       </c>
     </row>
@@ -11967,9 +12930,12 @@
         <v>894.7430736929572</v>
       </c>
       <c r="J312" t="n">
+        <v>65</v>
+      </c>
+      <c r="K312" t="n">
         <v>5.314355375000002</v>
       </c>
-      <c r="K312" t="n">
+      <c r="L312" t="n">
         <v>5.312455375000002</v>
       </c>
     </row>
@@ -12004,9 +12970,12 @@
         <v>851.097219125224</v>
       </c>
       <c r="J313" t="n">
+        <v>65</v>
+      </c>
+      <c r="K313" t="n">
         <v>4.787579791666667</v>
       </c>
-      <c r="K313" t="n">
+      <c r="L313" t="n">
         <v>4.787879791666668</v>
       </c>
     </row>
@@ -12041,9 +13010,12 @@
         <v>849.3731772199922</v>
       </c>
       <c r="J314" t="n">
+        <v>65</v>
+      </c>
+      <c r="K314" t="n">
         <v>7.446229666666667</v>
       </c>
-      <c r="K314" t="n">
+      <c r="L314" t="n">
         <v>4.443629666666667</v>
       </c>
     </row>
@@ -12078,9 +13050,12 @@
         <v>849.1232579968992</v>
       </c>
       <c r="J315" t="n">
+        <v>65</v>
+      </c>
+      <c r="K315" t="n">
         <v>4.403557125</v>
       </c>
-      <c r="K315" t="n">
+      <c r="L315" t="n">
         <v>4.400057125</v>
       </c>
     </row>
@@ -12115,9 +13090,12 @@
         <v>851.8715269966682</v>
       </c>
       <c r="J316" t="n">
+        <v>65</v>
+      </c>
+      <c r="K316" t="n">
         <v>4.494731625</v>
       </c>
-      <c r="K316" t="n">
+      <c r="L316" t="n">
         <v>4.497031625</v>
       </c>
     </row>
@@ -12152,9 +13130,12 @@
         <v>850.4786803985231</v>
       </c>
       <c r="J317" t="n">
+        <v>65</v>
+      </c>
+      <c r="K317" t="n">
         <v>4.639085791666667</v>
       </c>
-      <c r="K317" t="n">
+      <c r="L317" t="n">
         <v>4.640185791666667</v>
       </c>
     </row>
@@ -12189,9 +13170,12 @@
         <v>849.9848987994618</v>
       </c>
       <c r="J318" t="n">
+        <v>65</v>
+      </c>
+      <c r="K318" t="n">
         <v>4.767052625</v>
       </c>
-      <c r="K318" t="n">
+      <c r="L318" t="n">
         <v>4.768352625</v>
       </c>
     </row>
@@ -12226,9 +13210,12 @@
         <v>850.0224255500231</v>
       </c>
       <c r="J319" t="n">
+        <v>50</v>
+      </c>
+      <c r="K319" t="n">
         <v>4.742758291666666</v>
       </c>
-      <c r="K319" t="n">
+      <c r="L319" t="n">
         <v>4.762958291666666</v>
       </c>
     </row>
@@ -12263,9 +13250,12 @@
         <v>863.7364436450542</v>
       </c>
       <c r="J320" t="n">
+        <v>10</v>
+      </c>
+      <c r="K320" t="n">
         <v>3.288823666666667</v>
       </c>
-      <c r="K320" t="n">
+      <c r="L320" t="n">
         <v>4.430853666666667</v>
       </c>
     </row>
@@ -12300,9 +13290,12 @@
         <v>863.5299999999999</v>
       </c>
       <c r="J321" t="n">
+        <v>10</v>
+      </c>
+      <c r="K321" t="n">
         <v>2.921127833333333</v>
       </c>
-      <c r="K321" t="n">
+      <c r="L321" t="n">
         <v>4.073657833333334</v>
       </c>
     </row>
@@ -12337,9 +13330,12 @@
         <v>862.8650000000001</v>
       </c>
       <c r="J322" t="n">
+        <v>10</v>
+      </c>
+      <c r="K322" t="n">
         <v>2.9434205</v>
       </c>
-      <c r="K322" t="n">
+      <c r="L322" t="n">
         <v>4.092060500000001</v>
       </c>
     </row>
@@ -12374,9 +13370,12 @@
         <v>851.1933333333333</v>
       </c>
       <c r="J323" t="n">
+        <v>10</v>
+      </c>
+      <c r="K323" t="n">
         <v>3.419582166666667</v>
       </c>
-      <c r="K323" t="n">
+      <c r="L323" t="n">
         <v>4.618082166666667</v>
       </c>
     </row>
@@ -12411,9 +13410,12 @@
         <v>844.3626405333334</v>
       </c>
       <c r="J324" t="n">
+        <v>10</v>
+      </c>
+      <c r="K324" t="n">
         <v>3.14925375</v>
       </c>
-      <c r="K324" t="n">
+      <c r="L324" t="n">
         <v>4.548753749999999</v>
       </c>
     </row>
@@ -12448,9 +13450,12 @@
         <v>855.4047109333335</v>
       </c>
       <c r="J325" t="n">
+        <v>10</v>
+      </c>
+      <c r="K325" t="n">
         <v>3.074647375000001</v>
       </c>
-      <c r="K325" t="n">
+      <c r="L325" t="n">
         <v>4.572347375000001</v>
       </c>
     </row>
@@ -12485,9 +13490,12 @@
         <v>825.6708552873645</v>
       </c>
       <c r="J326" t="n">
+        <v>10</v>
+      </c>
+      <c r="K326" t="n">
         <v>3.090522708333334</v>
       </c>
-      <c r="K326" t="n">
+      <c r="L326" t="n">
         <v>4.653022708333334</v>
       </c>
     </row>
@@ -12522,9 +13530,12 @@
         <v>798.8909794124648</v>
       </c>
       <c r="J327" t="n">
+        <v>10</v>
+      </c>
+      <c r="K327" t="n">
         <v>4.466396916666667</v>
       </c>
-      <c r="K327" t="n">
+      <c r="L327" t="n">
         <v>4.763496916666668</v>
       </c>
     </row>
@@ -12559,9 +13570,12 @@
         <v>796.858472875641</v>
       </c>
       <c r="J328" t="n">
+        <v>10</v>
+      </c>
+      <c r="K328" t="n">
         <v>4.402342541666666</v>
       </c>
-      <c r="K328" t="n">
+      <c r="L328" t="n">
         <v>4.698742541666666</v>
       </c>
     </row>
@@ -12596,9 +13610,12 @@
         <v>801.7563866867455</v>
       </c>
       <c r="J329" t="n">
+        <v>10</v>
+      </c>
+      <c r="K329" t="n">
         <v>4.254514083333333</v>
       </c>
-      <c r="K329" t="n">
+      <c r="L329" t="n">
         <v>4.553814083333332</v>
       </c>
     </row>
@@ -12633,9 +13650,12 @@
         <v>798.4449236525069</v>
       </c>
       <c r="J330" t="n">
+        <v>10</v>
+      </c>
+      <c r="K330" t="n">
         <v>4.215000041666666</v>
       </c>
-      <c r="K330" t="n">
+      <c r="L330" t="n">
         <v>4.358900041666667</v>
       </c>
     </row>
@@ -12670,9 +13690,12 @@
         <v>800.2320355683797</v>
       </c>
       <c r="J331" t="n">
+        <v>10</v>
+      </c>
+      <c r="K331" t="n">
         <v>4.502148958333335</v>
       </c>
-      <c r="K331" t="n">
+      <c r="L331" t="n">
         <v>4.501948958333334</v>
       </c>
     </row>
@@ -12707,9 +13730,12 @@
         <v>798.6023086891581</v>
       </c>
       <c r="J332" t="n">
+        <v>13</v>
+      </c>
+      <c r="K332" t="n">
         <v>4.536971333333335</v>
       </c>
-      <c r="K332" t="n">
+      <c r="L332" t="n">
         <v>4.534171333333335</v>
       </c>
     </row>
@@ -12744,9 +13770,12 @@
         <v>795.3286103046124</v>
       </c>
       <c r="J333" t="n">
+        <v>13</v>
+      </c>
+      <c r="K333" t="n">
         <v>4.235218083333335</v>
       </c>
-      <c r="K333" t="n">
+      <c r="L333" t="n">
         <v>4.310418083333334</v>
       </c>
     </row>
@@ -12781,9 +13810,12 @@
         <v>796.9944966884999</v>
       </c>
       <c r="J334" t="n">
+        <v>13</v>
+      </c>
+      <c r="K334" t="n">
         <v>4.491889583333334</v>
       </c>
-      <c r="K334" t="n">
+      <c r="L334" t="n">
         <v>4.490389583333334</v>
       </c>
     </row>
@@ -12818,9 +13850,12 @@
         <v>799.1302541713758</v>
       </c>
       <c r="J335" t="n">
+        <v>13</v>
+      </c>
+      <c r="K335" t="n">
         <v>4.499135541666667</v>
       </c>
-      <c r="K335" t="n">
+      <c r="L335" t="n">
         <v>4.498235541666666</v>
       </c>
     </row>
@@ -12855,9 +13890,12 @@
         <v>799.9347507615813</v>
       </c>
       <c r="J336" t="n">
+        <v>13</v>
+      </c>
+      <c r="K336" t="n">
         <v>4.497138166666667</v>
       </c>
-      <c r="K336" t="n">
+      <c r="L336" t="n">
         <v>4.494638166666666</v>
       </c>
     </row>
@@ -12892,9 +13930,12 @@
         <v>801.8882657938548</v>
       </c>
       <c r="J337" t="n">
+        <v>12.96938793549272</v>
+      </c>
+      <c r="K337" t="n">
         <v>4.319116875</v>
       </c>
-      <c r="K337" t="n">
+      <c r="L337" t="n">
         <v>4.318316875</v>
       </c>
     </row>
@@ -12929,9 +13970,12 @@
         <v>760.6395550406775</v>
       </c>
       <c r="J338" t="n">
+        <v>13.01536310384301</v>
+      </c>
+      <c r="K338" t="n">
         <v>3.424966</v>
       </c>
-      <c r="K338" t="n">
+      <c r="L338" t="n">
         <v>4.845365999999999</v>
       </c>
     </row>
@@ -12966,9 +14010,12 @@
         <v>756.4070647756962</v>
       </c>
       <c r="J339" t="n">
+        <v>12.95598687051671</v>
+      </c>
+      <c r="K339" t="n">
         <v>4.122398833333333</v>
       </c>
-      <c r="K339" t="n">
+      <c r="L339" t="n">
         <v>4.604298833333332</v>
       </c>
     </row>
@@ -13003,9 +14050,12 @@
         <v>751.0276892238543</v>
       </c>
       <c r="J340" t="n">
+        <v>13.04878653692217</v>
+      </c>
+      <c r="K340" t="n">
         <v>4.649902458333333</v>
       </c>
-      <c r="K340" t="n">
+      <c r="L340" t="n">
         <v>5.049702458333333</v>
       </c>
     </row>
@@ -13040,9 +14090,12 @@
         <v>745.6140810665707</v>
       </c>
       <c r="J341" t="n">
+        <v>13.00941096247075</v>
+      </c>
+      <c r="K341" t="n">
         <v>4.708437083333333</v>
       </c>
-      <c r="K341" t="n">
+      <c r="L341" t="n">
         <v>5.150437083333333</v>
       </c>
     </row>
@@ -13077,9 +14130,12 @@
         <v>742.3863085633501</v>
       </c>
       <c r="J342" t="n">
+        <v>12.99862334297958</v>
+      </c>
+      <c r="K342" t="n">
         <v>4.94871275</v>
       </c>
-      <c r="K342" t="n">
+      <c r="L342" t="n">
         <v>5.35021275</v>
       </c>
     </row>
@@ -13114,9 +14170,12 @@
         <v>740.9652959572395</v>
       </c>
       <c r="J343" t="n">
+        <v>13.02355191619783</v>
+      </c>
+      <c r="K343" t="n">
         <v>4.699154916666666</v>
       </c>
-      <c r="K343" t="n">
+      <c r="L343" t="n">
         <v>5.103054916666666</v>
       </c>
     </row>
@@ -13151,9 +14210,12 @@
         <v>749.226810968625</v>
       </c>
       <c r="J344" t="n">
+        <v>13.01341577378268</v>
+      </c>
+      <c r="K344" t="n">
         <v>4.809928708333334</v>
       </c>
-      <c r="K344" t="n">
+      <c r="L344" t="n">
         <v>4.920328708333333</v>
       </c>
     </row>
@@ -13188,9 +14250,12 @@
         <v>747.3120268525082</v>
       </c>
       <c r="J345" t="n">
+        <v>13.04675911755973</v>
+      </c>
+      <c r="K345" t="n">
         <v>5.068826083333334</v>
       </c>
-      <c r="K345" t="n">
+      <c r="L345" t="n">
         <v>5.067426083333333</v>
       </c>
     </row>
@@ -13225,9 +14290,12 @@
         <v>749.0694991402333</v>
       </c>
       <c r="J346" t="n">
+        <v>13.0161487167624</v>
+      </c>
+      <c r="K346" t="n">
         <v>5.258058875000001</v>
       </c>
-      <c r="K346" t="n">
+      <c r="L346" t="n">
         <v>5.291158875000001</v>
       </c>
     </row>
@@ -13262,9 +14330,12 @@
         <v>750.1982508230835</v>
       </c>
       <c r="J347" t="n">
+        <v>12.99656456050483</v>
+      </c>
+      <c r="K347" t="n">
         <v>5.303761458333335</v>
       </c>
-      <c r="K347" t="n">
+      <c r="L347" t="n">
         <v>5.304261458333334</v>
       </c>
     </row>
@@ -13299,9 +14370,12 @@
         <v>768.0211109524611</v>
       </c>
       <c r="J348" t="n">
+        <v>13.02047542364884</v>
+      </c>
+      <c r="K348" t="n">
         <v>5.508088875</v>
       </c>
-      <c r="K348" t="n">
+      <c r="L348" t="n">
         <v>5.507088875</v>
       </c>
     </row>
@@ -13336,9 +14410,12 @@
         <v>779.7204185784302</v>
       </c>
       <c r="J349" t="n">
+        <v>12.95336092187262</v>
+      </c>
+      <c r="K349" t="n">
         <v>5.295982166666668</v>
       </c>
-      <c r="K349" t="n">
+      <c r="L349" t="n">
         <v>5.296882166666667</v>
       </c>
     </row>
@@ -13373,9 +14450,12 @@
         <v>777.6779755844767</v>
       </c>
       <c r="J350" t="n">
+        <v>12.98738078882738</v>
+      </c>
+      <c r="K350" t="n">
         <v>5.019928166666667</v>
       </c>
-      <c r="K350" t="n">
+      <c r="L350" t="n">
         <v>5.019828166666667</v>
       </c>
     </row>
@@ -13410,9 +14490,12 @@
         <v>787.6458181934792</v>
       </c>
       <c r="J351" t="n">
+        <v>13.01346336543638</v>
+      </c>
+      <c r="K351" t="n">
         <v>3.708610041666667</v>
       </c>
-      <c r="K351" t="n">
+      <c r="L351" t="n">
         <v>5.316110041666667</v>
       </c>
     </row>
@@ -13447,9 +14530,12 @@
         <v>792.6856703754233</v>
       </c>
       <c r="J352" t="n">
+        <v>12.99380118114387</v>
+      </c>
+      <c r="K352" t="n">
         <v>3.024516208333333</v>
       </c>
-      <c r="K352" t="n">
+      <c r="L352" t="n">
         <v>4.824516208333333</v>
       </c>
     </row>
@@ -13484,9 +14570,12 @@
         <v>787.2797881182323</v>
       </c>
       <c r="J353" t="n">
+        <v>12.95600389333021</v>
+      </c>
+      <c r="K353" t="n">
         <v>3.12199175</v>
       </c>
-      <c r="K353" t="n">
+      <c r="L353" t="n">
         <v>4.52569175</v>
       </c>
     </row>
@@ -13521,9 +14610,12 @@
         <v>798.96218545</v>
       </c>
       <c r="J354" t="n">
+        <v>13.01688639261744</v>
+      </c>
+      <c r="K354" t="n">
         <v>4.758930041666667</v>
       </c>
-      <c r="K354" t="n">
+      <c r="L354" t="n">
         <v>4.829430041666667</v>
       </c>
     </row>
@@ -13558,9 +14650,12 @@
         <v>815.3468745394031</v>
       </c>
       <c r="J355" t="n">
+        <v>13.00060174510148</v>
+      </c>
+      <c r="K355" t="n">
         <v>5.301683208333333</v>
       </c>
-      <c r="K355" t="n">
+      <c r="L355" t="n">
         <v>5.300683208333333</v>
       </c>
     </row>
@@ -13595,9 +14690,12 @@
         <v>845.382972038435</v>
       </c>
       <c r="J356" t="n">
+        <v>13.01185422918583</v>
+      </c>
+      <c r="K356" t="n">
         <v>4.937429166666666</v>
       </c>
-      <c r="K356" t="n">
+      <c r="L356" t="n">
         <v>4.936329166666666</v>
       </c>
     </row>
@@ -13632,9 +14730,12 @@
         <v>845.872744369963</v>
       </c>
       <c r="J357" t="n">
+        <v>13.00432018080119</v>
+      </c>
+      <c r="K357" t="n">
         <v>4.875628041666667</v>
       </c>
-      <c r="K357" t="n">
+      <c r="L357" t="n">
         <v>4.876328041666667</v>
       </c>
     </row>
@@ -13669,9 +14770,12 @@
         <v>847.7890908666667</v>
       </c>
       <c r="J358" t="n">
+        <v>12.97492515356038</v>
+      </c>
+      <c r="K358" t="n">
         <v>4.660926708333334</v>
       </c>
-      <c r="K358" t="n">
+      <c r="L358" t="n">
         <v>4.660426708333334</v>
       </c>
     </row>
@@ -13706,9 +14810,12 @@
         <v>848.7555686000001</v>
       </c>
       <c r="J359" t="n">
+        <v>12.96015060984426</v>
+      </c>
+      <c r="K359" t="n">
         <v>5.175392791666667</v>
       </c>
-      <c r="K359" t="n">
+      <c r="L359" t="n">
         <v>5.173892791666667</v>
       </c>
     </row>
@@ -13743,9 +14850,12 @@
         <v>849.8364441500001</v>
       </c>
       <c r="J360" t="n">
+        <v>14.00269437950768</v>
+      </c>
+      <c r="K360" t="n">
         <v>5.626063541666666</v>
       </c>
-      <c r="K360" t="n">
+      <c r="L360" t="n">
         <v>5.624163541666666</v>
       </c>
     </row>
@@ -13780,9 +14890,12 @@
         <v>846.8267046465224</v>
       </c>
       <c r="J361" t="n">
+        <v>14.99716521729338</v>
+      </c>
+      <c r="K361" t="n">
         <v>5.339707583333333</v>
       </c>
-      <c r="K361" t="n">
+      <c r="L361" t="n">
         <v>5.339707583333333</v>
       </c>
     </row>
@@ -13817,9 +14930,12 @@
         <v>847.6265076547603</v>
       </c>
       <c r="J362" t="n">
+        <v>14.98301419942465</v>
+      </c>
+      <c r="K362" t="n">
         <v>4.899818375000001</v>
       </c>
-      <c r="K362" t="n">
+      <c r="L362" t="n">
         <v>4.897118375000001</v>
       </c>
     </row>
@@ -13854,9 +14970,12 @@
         <v>847.0837099751861</v>
       </c>
       <c r="J363" t="n">
+        <v>14.99261507504615</v>
+      </c>
+      <c r="K363" t="n">
         <v>4.806126375</v>
       </c>
-      <c r="K363" t="n">
+      <c r="L363" t="n">
         <v>4.806326374999999</v>
       </c>
     </row>
@@ -13891,9 +15010,12 @@
         <v>845.864623172442</v>
       </c>
       <c r="J364" t="n">
+        <v>15.01422290527797</v>
+      </c>
+      <c r="K364" t="n">
         <v>4.618260125</v>
       </c>
-      <c r="K364" t="n">
+      <c r="L364" t="n">
         <v>4.617260125</v>
       </c>
     </row>
@@ -13928,9 +15050,12 @@
         <v>850.334794337651</v>
       </c>
       <c r="J365" t="n">
+        <v>14.99409419078438</v>
+      </c>
+      <c r="K365" t="n">
         <v>5.186326333333334</v>
       </c>
-      <c r="K365" t="n">
+      <c r="L365" t="n">
         <v>5.282326333333334</v>
       </c>
     </row>
@@ -13965,9 +15090,12 @@
         <v>846.563847090952</v>
       </c>
       <c r="J366" t="n">
+        <v>15.00182182789995</v>
+      </c>
+      <c r="K366" t="n">
         <v>5.303540041666667</v>
       </c>
-      <c r="K366" t="n">
+      <c r="L366" t="n">
         <v>5.303740041666667</v>
       </c>
     </row>
@@ -14002,9 +15130,12 @@
         <v>846.6992360678373</v>
       </c>
       <c r="J367" t="n">
+        <v>14.99942300524584</v>
+      </c>
+      <c r="K367" t="n">
         <v>5.263754</v>
       </c>
-      <c r="K367" t="n">
+      <c r="L367" t="n">
         <v>5.262554</v>
       </c>
     </row>
@@ -14039,9 +15170,12 @@
         <v>846.2930521412092</v>
       </c>
       <c r="J368" t="n">
+        <v>15.00662207714891</v>
+      </c>
+      <c r="K368" t="n">
         <v>5.065398041666666</v>
       </c>
-      <c r="K368" t="n">
+      <c r="L368" t="n">
         <v>5.065198041666665</v>
       </c>
     </row>
@@ -14076,9 +15210,12 @@
         <v>847.3830747592791</v>
       </c>
       <c r="J369" t="n">
+        <v>14.98731846114316</v>
+      </c>
+      <c r="K369" t="n">
         <v>4.675626166666667</v>
       </c>
-      <c r="K369" t="n">
+      <c r="L369" t="n">
         <v>4.674626166666666</v>
       </c>
     </row>
@@ -14113,9 +15250,12 @@
         <v>846.0414696812792</v>
       </c>
       <c r="J370" t="n">
+        <v>15.01108450958597</v>
+      </c>
+      <c r="K370" t="n">
         <v>4.550261541666667</v>
       </c>
-      <c r="K370" t="n">
+      <c r="L370" t="n">
         <v>4.547861541666666</v>
       </c>
     </row>
@@ -14150,9 +15290,12 @@
         <v>847.5648487656975</v>
       </c>
       <c r="J371" t="n">
+        <v>14.98410418800982</v>
+      </c>
+      <c r="K371" t="n">
         <v>4.851736708333334</v>
       </c>
-      <c r="K371" t="n">
+      <c r="L371" t="n">
         <v>4.849136708333334</v>
       </c>
     </row>
@@ -14187,9 +15330,12 @@
         <v>848.8483071455812</v>
       </c>
       <c r="J372" t="n">
+        <v>14.96144822707633</v>
+      </c>
+      <c r="K372" t="n">
         <v>5.360425999999999</v>
       </c>
-      <c r="K372" t="n">
+      <c r="L372" t="n">
         <v>5.359325999999999</v>
       </c>
     </row>
@@ -14224,9 +15370,12 @@
         <v>846.7225367310821</v>
       </c>
       <c r="J373" t="n">
+        <v>14.99901024133659</v>
+      </c>
+      <c r="K373" t="n">
         <v>5.325588</v>
       </c>
-      <c r="K373" t="n">
+      <c r="L373" t="n">
         <v>5.323188</v>
       </c>
     </row>
@@ -14261,9 +15410,12 @@
         <v>847.6340559915611</v>
       </c>
       <c r="J374" t="n">
+        <v>14.98288077293397</v>
+      </c>
+      <c r="K374" t="n">
         <v>5.15430575</v>
       </c>
-      <c r="K374" t="n">
+      <c r="L374" t="n">
         <v>5.15350575</v>
       </c>
     </row>
@@ -14298,9 +15450,12 @@
         <v>847.4799394437983</v>
       </c>
       <c r="J375" t="n">
+        <v>14.98560545083229</v>
+      </c>
+      <c r="K375" t="n">
         <v>5.070141916666667</v>
       </c>
-      <c r="K375" t="n">
+      <c r="L375" t="n">
         <v>5.068641916666667</v>
       </c>
     </row>
@@ -14335,9 +15490,12 @@
         <v>848.2738801440217</v>
       </c>
       <c r="J376" t="n">
+        <v>14.97157969527927</v>
+      </c>
+      <c r="K376" t="n">
         <v>4.832465791666667</v>
       </c>
-      <c r="K376" t="n">
+      <c r="L376" t="n">
         <v>4.831165791666667</v>
       </c>
     </row>
@@ -14372,9 +15530,12 @@
         <v>849.9511987084187</v>
       </c>
       <c r="J377" t="n">
+        <v>15.00086124871032</v>
+      </c>
+      <c r="K377" t="n">
         <v>5.278840083333334</v>
       </c>
-      <c r="K377" t="n">
+      <c r="L377" t="n">
         <v>5.275840083333334</v>
       </c>
     </row>
@@ -14409,9 +15570,12 @@
         <v>848.5814022830792</v>
       </c>
       <c r="J378" t="n">
+        <v>14.96615406115558</v>
+      </c>
+      <c r="K378" t="n">
         <v>5.326000666666667</v>
       </c>
-      <c r="K378" t="n">
+      <c r="L378" t="n">
         <v>5.324900666666667</v>
       </c>
     </row>
@@ -14446,9 +15610,12 @@
         <v>847.9578280117829</v>
       </c>
       <c r="J379" t="n">
+        <v>14.97715992524988</v>
+      </c>
+      <c r="K379" t="n">
         <v>5.456536416666667</v>
       </c>
-      <c r="K379" t="n">
+      <c r="L379" t="n">
         <v>5.453636416666667</v>
       </c>
     </row>
@@ -14483,9 +15650,12 @@
         <v>847.395398659845</v>
       </c>
       <c r="J380" t="n">
+        <v>14.9871004965156</v>
+      </c>
+      <c r="K380" t="n">
         <v>5.313808333333333</v>
       </c>
-      <c r="K380" t="n">
+      <c r="L380" t="n">
         <v>5.313908333333333</v>
       </c>
     </row>
@@ -14520,9 +15690,12 @@
         <v>845.7968243522482</v>
       </c>
       <c r="J381" t="n">
+        <v>15.01542644089054</v>
+      </c>
+      <c r="K381" t="n">
         <v>5.406696375</v>
       </c>
-      <c r="K381" t="n">
+      <c r="L381" t="n">
         <v>5.407296375</v>
       </c>
     </row>
@@ -14557,9 +15730,12 @@
         <v>847.7412228565628</v>
       </c>
       <c r="J382" t="n">
+        <v>14.98098671809998</v>
+      </c>
+      <c r="K382" t="n">
         <v>5.047839833333333</v>
       </c>
-      <c r="K382" t="n">
+      <c r="L382" t="n">
         <v>5.045639833333333</v>
       </c>
     </row>
@@ -14594,9 +15770,12 @@
         <v>849.0197856626047</v>
       </c>
       <c r="J383" t="n">
+        <v>14.95842642829398</v>
+      </c>
+      <c r="K383" t="n">
         <v>5.256472416666666</v>
       </c>
-      <c r="K383" t="n">
+      <c r="L383" t="n">
         <v>5.255572416666666</v>
       </c>
     </row>
@@ -14631,9 +15810,12 @@
         <v>850.474609414262</v>
       </c>
       <c r="J384" t="n">
+        <v>14.99162921369418</v>
+      </c>
+      <c r="K384" t="n">
         <v>5.3986755</v>
       </c>
-      <c r="K384" t="n">
+      <c r="L384" t="n">
         <v>5.3949755</v>
       </c>
     </row>
@@ -14668,9 +15850,12 @@
         <v>849.6329502846123</v>
       </c>
       <c r="J385" t="n">
+        <v>15.00648014619604</v>
+      </c>
+      <c r="K385" t="n">
         <v>5.249491916666667</v>
       </c>
-      <c r="K385" t="n">
+      <c r="L385" t="n">
         <v>5.247191916666667</v>
       </c>
     </row>
@@ -14705,9 +15890,12 @@
         <v>850.8242298812326</v>
       </c>
       <c r="J386" t="n">
+        <v>14.9854688573923</v>
+      </c>
+      <c r="K386" t="n">
         <v>4.967104833333334</v>
       </c>
-      <c r="K386" t="n">
+      <c r="L386" t="n">
         <v>4.965104833333333</v>
       </c>
     </row>
@@ -14742,9 +15930,12 @@
         <v>850.306547390632</v>
       </c>
       <c r="J387" t="n">
+        <v>14.99459229042327</v>
+      </c>
+      <c r="K387" t="n">
         <v>5.036996208333333</v>
       </c>
-      <c r="K387" t="n">
+      <c r="L387" t="n">
         <v>5.035996208333333</v>
       </c>
     </row>
@@ -14779,9 +15970,12 @@
         <v>849.8749638371241</v>
       </c>
       <c r="J388" t="n">
+        <v>15.00220684515128</v>
+      </c>
+      <c r="K388" t="n">
         <v>5.07006825</v>
       </c>
-      <c r="K388" t="n">
+      <c r="L388" t="n">
         <v>5.06946825</v>
       </c>
     </row>
@@ -14816,9 +16010,12 @@
         <v>847.7605868979625</v>
       </c>
       <c r="J389" t="n">
+        <v>15.03962344681943</v>
+      </c>
+      <c r="K389" t="n">
         <v>5.563286916666667</v>
       </c>
-      <c r="K389" t="n">
+      <c r="L389" t="n">
         <v>5.561386916666667</v>
       </c>
     </row>
@@ -14853,9 +16050,12 @@
         <v>849.9732351718409</v>
       </c>
       <c r="J390" t="n">
+        <v>15.00047233536984</v>
+      </c>
+      <c r="K390" t="n">
         <v>5.555495875000001</v>
       </c>
-      <c r="K390" t="n">
+      <c r="L390" t="n">
         <v>5.553095875</v>
       </c>
     </row>
@@ -14890,9 +16090,12 @@
         <v>848.6159113145659</v>
       </c>
       <c r="J391" t="n">
+        <v>15.02446493166661</v>
+      </c>
+      <c r="K391" t="n">
         <v>5.713436708333333</v>
       </c>
-      <c r="K391" t="n">
+      <c r="L391" t="n">
         <v>5.712936708333332</v>
       </c>
     </row>
@@ -14927,9 +16130,12 @@
         <v>850.9046936542209</v>
       </c>
       <c r="J392" t="n">
+        <v>14.98405179226943</v>
+      </c>
+      <c r="K392" t="n">
         <v>5.389626791666667</v>
       </c>
-      <c r="K392" t="n">
+      <c r="L392" t="n">
         <v>5.388426791666667</v>
       </c>
     </row>
@@ -14964,9 +16170,12 @@
         <v>851.0053574736233</v>
       </c>
       <c r="J393" t="n">
+        <v>14.98227935703117</v>
+      </c>
+      <c r="K393" t="n">
         <v>5.201757958333333</v>
       </c>
-      <c r="K393" t="n">
+      <c r="L393" t="n">
         <v>5.199757958333333</v>
       </c>
     </row>
@@ -15001,9 +16210,12 @@
         <v>850.995434081765</v>
       </c>
       <c r="J394" t="n">
+        <v>14.98245406423057</v>
+      </c>
+      <c r="K394" t="n">
         <v>4.888901291666667</v>
       </c>
-      <c r="K394" t="n">
+      <c r="L394" t="n">
         <v>4.888801291666667</v>
       </c>
     </row>
@@ -15038,9 +16250,12 @@
         <v>830.5391568441231</v>
       </c>
       <c r="J395" t="n">
+        <v>14.99026252694385</v>
+      </c>
+      <c r="K395" t="n">
         <v>5.477471291666666</v>
       </c>
-      <c r="K395" t="n">
+      <c r="L395" t="n">
         <v>5.477471291666666</v>
       </c>
     </row>
@@ -15075,9 +16290,12 @@
         <v>803.9501521270658</v>
       </c>
       <c r="J396" t="n">
+        <v>14.98849147315725</v>
+      </c>
+      <c r="K396" t="n">
         <v>5.654703125</v>
       </c>
-      <c r="K396" t="n">
+      <c r="L396" t="n">
         <v>5.655603125</v>
       </c>
     </row>
@@ -15112,9 +16330,12 @@
         <v>777.6967208852053</v>
       </c>
       <c r="J397" t="n">
+        <v>15.04442501272552</v>
+      </c>
+      <c r="K397" t="n">
         <v>5.462252208333334</v>
       </c>
-      <c r="K397" t="n">
+      <c r="L397" t="n">
         <v>5.462252208333334</v>
       </c>
     </row>
@@ -15149,9 +16370,12 @@
         <v>775.3877414165837</v>
       </c>
       <c r="J398" t="n">
+        <v>14.96025714671158</v>
+      </c>
+      <c r="K398" t="n">
         <v>5.195836</v>
       </c>
-      <c r="K398" t="n">
+      <c r="L398" t="n">
         <v>5.195836</v>
       </c>
     </row>
@@ -15186,9 +16410,12 @@
         <v>775.1923883831905</v>
       </c>
       <c r="J399" t="n">
+        <v>14.96402721935129</v>
+      </c>
+      <c r="K399" t="n">
         <v>4.893757541666667</v>
       </c>
-      <c r="K399" t="n">
+      <c r="L399" t="n">
         <v>4.893757541666667</v>
       </c>
     </row>
@@ -15223,9 +16450,12 @@
         <v>759.5577955666569</v>
       </c>
       <c r="J400" t="n">
+        <v>15.00873280024096</v>
+      </c>
+      <c r="K400" t="n">
         <v>5.122084916666667</v>
       </c>
-      <c r="K400" t="n">
+      <c r="L400" t="n">
         <v>5.122084916666667</v>
       </c>
     </row>
@@ -15260,9 +16490,12 @@
         <v>750.4155005645833</v>
       </c>
       <c r="J401" t="n">
+        <v>14.99169458991178</v>
+      </c>
+      <c r="K401" t="n">
         <v>5.644730083333333</v>
       </c>
-      <c r="K401" t="n">
+      <c r="L401" t="n">
         <v>5.644730083333333</v>
       </c>
     </row>
@@ -15297,9 +16530,12 @@
         <v>755.6222988573418</v>
       </c>
       <c r="J402" t="n">
+        <v>14.95456131600133</v>
+      </c>
+      <c r="K402" t="n">
         <v>5.578628291666666</v>
       </c>
-      <c r="K402" t="n">
+      <c r="L402" t="n">
         <v>5.578628291666666</v>
       </c>
     </row>
@@ -15334,9 +16570,12 @@
         <v>745.6104472666667</v>
       </c>
       <c r="J403" t="n">
+        <v>15.02124875135277</v>
+      </c>
+      <c r="K403" t="n">
         <v>5.639759458333334</v>
       </c>
-      <c r="K403" t="n">
+      <c r="L403" t="n">
         <v>5.639759458333334</v>
       </c>
     </row>
@@ -15371,9 +16610,12 @@
         <v>750.0003846367999</v>
       </c>
       <c r="J404" t="n">
+        <v>14.99999230726795</v>
+      </c>
+      <c r="K404" t="n">
         <v>5.631040833333333</v>
       </c>
-      <c r="K404" t="n">
+      <c r="L404" t="n">
         <v>5.631040833333333</v>
       </c>
     </row>
@@ -15408,9 +16650,12 @@
         <v>750.785098976</v>
       </c>
       <c r="J405" t="n">
+        <v>14.98431444010269</v>
+      </c>
+      <c r="K405" t="n">
         <v>5.452719541666665</v>
       </c>
-      <c r="K405" t="n">
+      <c r="L405" t="n">
         <v>5.452719541666665</v>
       </c>
     </row>
@@ -15445,9 +16690,12 @@
         <v>746.3768664703999</v>
       </c>
       <c r="J406" t="n">
+        <v>15.00582413943851</v>
+      </c>
+      <c r="K406" t="n">
         <v>5.168145416666667</v>
       </c>
-      <c r="K406" t="n">
+      <c r="L406" t="n">
         <v>5.168145416666667</v>
       </c>
     </row>
@@ -15482,9 +16730,12 @@
         <v>744.5166324592792</v>
       </c>
       <c r="J407" t="n">
+        <v>15.04331738433335</v>
+      </c>
+      <c r="K407" t="n">
         <v>5.900799125</v>
       </c>
-      <c r="K407" t="n">
+      <c r="L407" t="n">
         <v>5.900799125</v>
       </c>
     </row>
@@ -15519,9 +16770,12 @@
         <v>744.057470111863</v>
       </c>
       <c r="J408" t="n">
+        <v>14.98540159582523</v>
+      </c>
+      <c r="K408" t="n">
         <v>5.941656125000001</v>
       </c>
-      <c r="K408" t="n">
+      <c r="L408" t="n">
         <v>5.941656125000001</v>
       </c>
     </row>
@@ -15556,9 +16810,12 @@
         <v>749.7812502132332</v>
       </c>
       <c r="J409" t="n">
+        <v>15.0043762721468</v>
+      </c>
+      <c r="K409" t="n">
         <v>5.722170333333334</v>
       </c>
-      <c r="K409" t="n">
+      <c r="L409" t="n">
         <v>5.722170333333334</v>
       </c>
     </row>
@@ -15593,9 +16850,12 @@
         <v>759.562</v>
       </c>
       <c r="J410" t="n">
+        <v>15.00864972181336</v>
+      </c>
+      <c r="K410" t="n">
         <v>5.712557666666666</v>
       </c>
-      <c r="K410" t="n">
+      <c r="L410" t="n">
         <v>5.713657666666666</v>
       </c>
     </row>
